--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance-backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Migração!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
   <si>
     <t>Seq.</t>
   </si>
@@ -165,33 +165,9 @@
     <t>Star</t>
   </si>
   <si>
-    <t xml:space="preserve">        Migrar 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Migrar 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Migrar 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Migrar 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Migrar 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Migrar 2008</t>
-  </si>
-  <si>
     <t>Projeto</t>
   </si>
   <si>
-    <t>Integração de tags (Biderecional?)</t>
-  </si>
-  <si>
-    <t>Gerar resumo sr</t>
-  </si>
-  <si>
     <t>Heroku - QuickStart</t>
   </si>
   <si>
@@ -199,6 +175,78 @@
   </si>
   <si>
     <t>Springboot 9 Guides (3/dia)</t>
+  </si>
+  <si>
+    <t>Migrar 2014</t>
+  </si>
+  <si>
+    <t>Migrar 2013</t>
+  </si>
+  <si>
+    <t>Migrar 2012</t>
+  </si>
+  <si>
+    <t>Migrar 2010</t>
+  </si>
+  <si>
+    <t>Migrar 2009</t>
+  </si>
+  <si>
+    <t>Migrar 2008</t>
+  </si>
+  <si>
+    <t>WhatApp</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Resumo sr E6 query etc</t>
+  </si>
+  <si>
+    <t>Dashboard - indicadores do labor</t>
+  </si>
+  <si>
+    <t>Manter contatos - admin</t>
+  </si>
+  <si>
+    <t>Ficha de cadastro publica (pág. 12)</t>
+  </si>
+  <si>
+    <t>Ficha de cadastro papel (pág. 12)</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>1º semestre 2017</t>
+  </si>
+  <si>
+    <t>Marcar presenças</t>
+  </si>
+  <si>
+    <t>Migrar 2017 usando App</t>
+  </si>
+  <si>
+    <t>Migrar meses 2016 ausentes usando App</t>
+  </si>
+  <si>
+    <t>Atenticação e autorização</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>data...</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Upload foto: crud person, ficha pública</t>
+  </si>
+  <si>
+    <t>Upload foto: integração google contatos, outros</t>
   </si>
 </sst>
 </file>
@@ -232,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,429 +399,506 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -808,8 +939,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1110,17 +1241,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,7 +1272,7 @@
       <c r="C3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1152,222 +1283,244 @@
       <c r="C4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
+        <v>31</v>
+      </c>
+      <c r="D5" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D27" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:D2">
-    <sortState ref="B3:D26">
+    <sortState ref="B3:D27">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1375,172 +1528,437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="str">
+        <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="26">
+        <v>42845</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="str">
+        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="str">
+        <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="str">
+        <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
+        <v>API - Dropbox</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="str">
+        <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
+        <v>Ficha de cadastro</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="str">
+        <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="22">
+        <v>6</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="str">
+        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="22">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="str">
+        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="22">
+        <v>8</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="str">
+        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="str">
+        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="str">
+        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="str">
+        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="str">
+        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="str">
+        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="str">
+        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E17" s="22"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="str">
+        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="str">
+        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="str">
+        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="str">
+        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="str">
+        <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C22" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="D22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="str">
+        <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="str">
+        <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="str">
+        <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:C25">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="B2:E2">
+    <sortState ref="B3:E25">
+      <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="E4:E25">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1555,15 +1973,15 @@
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -14,19 +14,20 @@
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
     <sheet name="Projetos" sheetId="19" r:id="rId2"/>
-    <sheet name="Migração" sheetId="16" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="20" r:id="rId3"/>
+    <sheet name="Migração" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Migração!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Migração!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="82">
   <si>
     <t>Seq.</t>
   </si>
@@ -168,15 +169,6 @@
     <t>Projeto</t>
   </si>
   <si>
-    <t>Heroku - QuickStart</t>
-  </si>
-  <si>
-    <t>TUTORIAL Building REST services with Spring</t>
-  </si>
-  <si>
-    <t>Springboot 9 Guides (3/dia)</t>
-  </si>
-  <si>
     <t>Migrar 2014</t>
   </si>
   <si>
@@ -198,18 +190,12 @@
     <t>WhatApp</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>Resumo sr E6 query etc</t>
   </si>
   <si>
     <t>Dashboard - indicadores do labor</t>
   </si>
   <si>
-    <t>Manter contatos - admin</t>
-  </si>
-  <si>
     <t>Ficha de cadastro publica (pág. 12)</t>
   </si>
   <si>
@@ -237,9 +223,6 @@
     <t>Conclusão</t>
   </si>
   <si>
-    <t>data...</t>
-  </si>
-  <si>
     <t>Início</t>
   </si>
   <si>
@@ -247,13 +230,58 @@
   </si>
   <si>
     <t>Upload foto: integração google contatos, outros</t>
+  </si>
+  <si>
+    <t>Evernote</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>Versão responsiva</t>
+  </si>
+  <si>
+    <t>Deploy em um click</t>
+  </si>
+  <si>
+    <t>Release 1 - Apresentar ao CA</t>
+  </si>
+  <si>
+    <t>Atividade</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Marcar presença: : Editar nome diretamente na lista. Considerar STATUS person, old_name separados por vírgula</t>
+  </si>
+  <si>
+    <t>Marcar presença: ao adicionar pessoa, só acrescentar na grid, ou seja, não persiste nada. Reordena a grid com o nome adicionada sleecionado</t>
+  </si>
+  <si>
+    <t>Tabela Attendance: UNIQUE - atividade, pessoa, data</t>
+  </si>
+  <si>
+    <t>github: Proteger senhas, token dropbox</t>
+  </si>
+  <si>
+    <t>config: em produção, jpa não faz muda a estrutura do banco DDL</t>
+  </si>
+  <si>
+    <t>CRUD pessoas - admin</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Estimativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +306,20 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -330,11 +372,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -406,18 +449,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="47">
     <dxf>
       <font>
         <b val="0"/>
@@ -835,6 +902,38 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -939,8 +1038,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="43"/>
-      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1244,7 +1343,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>1</v>
@@ -1511,13 +1610,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1528,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,11 +1638,13 @@
     <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1553,38 +1654,48 @@
       <c r="D2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>70</v>
+      <c r="E2" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="26">
-        <v>42845</v>
-      </c>
-      <c r="F3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="35">
+        <v>42856</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
@@ -1593,17 +1704,23 @@
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="22">
+        <v>70</v>
+      </c>
+      <c r="E4" s="35">
+        <v>42863</v>
+      </c>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -1612,17 +1729,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="22">
+        <v>60</v>
+      </c>
+      <c r="E5" s="35">
+        <v>42870</v>
+      </c>
+      <c r="F5" s="22">
         <v>3</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
         <v>API - Dropbox</v>
@@ -1631,36 +1752,44 @@
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="22">
+        <v>53</v>
+      </c>
+      <c r="E6" s="35">
+        <v>42877</v>
+      </c>
+      <c r="F6" s="22">
         <v>4</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22">
+        <v>79</v>
+      </c>
+      <c r="E7" s="35">
+        <v>42884</v>
+      </c>
+      <c r="F7" s="22">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
@@ -1669,110 +1798,136 @@
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="22">
+        <v>62</v>
+      </c>
+      <c r="E8" s="35">
+        <v>42891</v>
+      </c>
+      <c r="F8" s="22">
         <v>6</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Front - Web</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="22">
+        <v>71</v>
+      </c>
+      <c r="E9" s="35">
+        <v>42898</v>
+      </c>
+      <c r="F9" s="22">
         <v>7</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="35">
+        <v>42905</v>
+      </c>
+      <c r="F10" s="22">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="22">
-        <v>8</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="22">
+        <v>55</v>
+      </c>
+      <c r="E11" s="35">
+        <v>42912</v>
+      </c>
+      <c r="F11" s="22">
         <v>9</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E12" s="35">
+        <v>42919</v>
+      </c>
+      <c r="F12" s="22">
+        <v>10</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="35">
+        <v>42926</v>
+      </c>
+      <c r="F13" s="22">
+        <v>11</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
@@ -1780,16 +1935,24 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="25">
+        <v>42845</v>
+      </c>
+      <c r="G14" s="25">
+        <v>42853</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1798,13 +1961,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1813,13 +1978,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1828,13 +1995,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1843,13 +2012,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1858,13 +2029,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -1873,13 +2046,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
         <v>Página de cadastro inteligente</v>
@@ -1888,13 +2063,15 @@
         <v>12</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
         <v>API - Google Contatcs</v>
@@ -1903,52 +2080,338 @@
         <v>7</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I2">
+    <sortState ref="B3:I25">
+      <sortCondition ref="F2"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F4:F22">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H14" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="str">
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="str">
+        <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="25">
+        <v>42852</v>
+      </c>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="str">
+        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="25">
+        <v>42852</v>
+      </c>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="str">
+        <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="25">
+        <v>42852</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="str">
+        <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="25">
+        <v>42852</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="str">
+        <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="25">
+        <v>42852</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="str">
+        <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="str">
+        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="str">
+        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="str">
+        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="str">
+        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="str">
+        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="str">
+        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="str">
+        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="str">
+        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="str">
+        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="str">
+        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="str">
+        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="str">
+        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="str">
+        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="str">
+        <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="str">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="str">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2">
-    <sortState ref="B3:E25">
-      <sortCondition ref="E2"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="E4:E25">
+  <conditionalFormatting sqref="E3:F25">
     <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -1964,13 +2427,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>Seq.</t>
   </si>
@@ -211,12 +211,6 @@
     <t>Marcar presenças</t>
   </si>
   <si>
-    <t>Migrar 2017 usando App</t>
-  </si>
-  <si>
-    <t>Migrar meses 2016 ausentes usando App</t>
-  </si>
-  <si>
     <t>Atenticação e autorização</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>Deploy em um click</t>
   </si>
   <si>
-    <t>Release 1 - Apresentar ao CA</t>
-  </si>
-  <si>
     <t>Atividade</t>
   </si>
   <si>
@@ -268,13 +259,37 @@
     <t>config: em produção, jpa não faz muda a estrutura do banco DDL</t>
   </si>
   <si>
-    <t>CRUD pessoas - admin</t>
-  </si>
-  <si>
     <t>Registro</t>
   </si>
   <si>
-    <t>Estimativa</t>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>CRUD Atividades e Pessoas</t>
+  </si>
+  <si>
+    <t>Release 1 produção</t>
+  </si>
+  <si>
+    <t>Atenticação só para CA e AC</t>
+  </si>
+  <si>
+    <t>Migrar 2016 (meses faltantes)</t>
+  </si>
+  <si>
+    <t>Migrar Maio via App</t>
+  </si>
+  <si>
+    <t>Migrar 2017</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
   </si>
 </sst>
 </file>
@@ -322,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,424 +505,1128 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1038,8 +1763,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="wholeTable" dxfId="112"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1610,13 +2335,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1627,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I15" sqref="I15:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +2363,7 @@
     <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="21" customWidth="1"/>
     <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="34.75" style="21" customWidth="1"/>
@@ -1655,16 +2380,16 @@
         <v>45</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>57</v>
@@ -1673,235 +2398,217 @@
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="35">
-        <v>42856</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25">
+        <v>42869</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="35">
-        <v>42863</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2</v>
-      </c>
+      <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="H4" s="25"/>
       <c r="I4" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="22">
         <v>3</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="35">
-        <v>42870</v>
-      </c>
-      <c r="F5" s="22">
-        <v>3</v>
-      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="I5" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>API - Dropbox</v>
+        <v>Front - Web</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="35">
-        <v>42877</v>
-      </c>
-      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="22">
         <v>4</v>
       </c>
+      <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>API - Dropbox</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="35">
-        <v>42884</v>
-      </c>
-      <c r="F7" s="22">
+        <v>6</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="22">
         <v>5</v>
       </c>
+      <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="35">
-        <v>42891</v>
-      </c>
-      <c r="F8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="22">
         <v>6</v>
       </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="35">
-        <v>42898</v>
-      </c>
-      <c r="F9" s="22">
+        <v>56</v>
+      </c>
+      <c r="E9" s="22">
         <v>7</v>
       </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C10" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="35">
-        <v>42905</v>
-      </c>
-      <c r="F10" s="22">
+        <v>55</v>
+      </c>
+      <c r="E10" s="22">
         <v>8</v>
       </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C11" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="35">
-        <v>42912</v>
-      </c>
-      <c r="F11" s="22">
+        <v>83</v>
+      </c>
+      <c r="E11" s="22">
         <v>9</v>
       </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="35">
-        <v>42919</v>
-      </c>
-      <c r="F12" s="22">
+        <v>81</v>
+      </c>
+      <c r="E12" s="22">
         <v>10</v>
       </c>
+      <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1915,16 +2622,14 @@
       <c r="D13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="35">
-        <v>42926</v>
-      </c>
-      <c r="F13" s="22">
+      <c r="E13" s="22">
         <v>11</v>
       </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,21 +2640,17 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="25">
-        <v>42845</v>
-      </c>
-      <c r="G14" s="25">
-        <v>42853</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="D14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="22">
+        <v>12</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="20" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,11 +2664,15 @@
       <c r="D15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="22">
+        <v>13</v>
+      </c>
+      <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="str">
@@ -1978,13 +2683,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="22">
+        <v>14</v>
+      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
@@ -1995,13 +2704,17 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E17" s="22">
+        <v>15</v>
+      </c>
+      <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
@@ -2014,11 +2727,15 @@
       <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="22">
+        <v>16</v>
+      </c>
+      <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
@@ -2031,11 +2748,15 @@
       <c r="D19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="22">
+        <v>17</v>
+      </c>
+      <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
@@ -2048,11 +2769,15 @@
       <c r="D20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="22">
+        <v>18</v>
+      </c>
+      <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
@@ -2063,13 +2788,17 @@
         <v>12</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="E21" s="22">
+        <v>19</v>
+      </c>
+      <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
@@ -2080,38 +2809,126 @@
         <v>7</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="E22" s="22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="str">
+        <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="25">
+        <v>42845</v>
+      </c>
+      <c r="G23" s="25">
+        <v>42853</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="str">
+        <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="25">
+        <v>42856</v>
+      </c>
+      <c r="G24" s="25">
+        <v>42867</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2">
-    <sortState ref="B3:I25">
-      <sortCondition ref="F2"/>
+    <sortState ref="B3:I24">
+      <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F4:F22">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E6 E8:E22">
+    <cfRule type="cellIs" dxfId="68" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E24">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+      <formula>"~"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H23" r:id="rId1"/>
+    <hyperlink ref="H24" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2138,16 +2955,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="25">
         <v>42852</v>
@@ -2175,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="25">
         <v>42852</v>
@@ -2191,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="25">
         <v>42852</v>
@@ -2207,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="25">
         <v>42852</v>
@@ -2223,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="25">
         <v>42852</v>
@@ -2412,13 +3229,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F25">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3710,182 +4527,182 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D12:G12">
-    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C82">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:G17 D19:G82">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:G11">
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G4">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G4">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G7">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G8">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G8">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:G10">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance-backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,27 +505,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="113">
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <b val="0"/>
@@ -943,594 +923,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1763,8 +1155,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="112"/>
-      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="wholeTable" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2335,13 +1727,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2355,7 +1747,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="22">
         <v>2</v>
@@ -2473,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="22">
         <v>4</v>
@@ -2878,46 +2270,46 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E5:E6 E8:E22">
-    <cfRule type="cellIs" dxfId="68" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="27" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3229,13 +2621,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F25">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4527,182 +3919,182 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D12:G12">
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C82">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:G17 D19:G82">
-    <cfRule type="cellIs" dxfId="35" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:G11">
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G4">
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G4">
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G7">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G8">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G8">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:G10">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="90">
   <si>
     <t>Seq.</t>
   </si>
@@ -190,9 +190,6 @@
     <t>WhatApp</t>
   </si>
   <si>
-    <t>Resumo sr E6 query etc</t>
-  </si>
-  <si>
     <t>Dashboard - indicadores do labor</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>Migrar Maio via App</t>
   </si>
   <si>
-    <t>Migrar 2017</t>
-  </si>
-  <si>
     <t>Maio</t>
   </si>
   <si>
@@ -290,6 +284,21 @@
   </si>
   <si>
     <t>Julho</t>
+  </si>
+  <si>
+    <t>Migrar Março via App</t>
+  </si>
+  <si>
+    <t>Resumo sr E6 query etc (ref: março 2017)</t>
+  </si>
+  <si>
+    <t>Migrar 2017 (meses faltantes)</t>
+  </si>
+  <si>
+    <t>Início de Junho</t>
+  </si>
+  <si>
+    <t>Mensagens confimaçã e info referente a Folha 15</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -923,70 +932,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1155,8 +1100,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1727,13 +1672,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1744,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,88 +1717,82 @@
         <v>45</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25">
-        <v>42869</v>
-      </c>
+      <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
-        <v>66</v>
-      </c>
+      <c r="H3" s="25"/>
       <c r="I3" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>API - Dropbox</v>
       </c>
       <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="22">
         <v>3</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="22">
-        <v>2</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
-        <v>66</v>
-      </c>
+      <c r="H5" s="25"/>
       <c r="I5" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,184 +1804,184 @@
         <v>3</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>API - Dropbox</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="22">
         <v>6</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="22">
-        <v>5</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>DB</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E9" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C10" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E10" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E12" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau</v>
+        <v>DB</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="E13" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>DB</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E14" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,16 +1993,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,16 +2014,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,210 +2056,222 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E19" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>API - Google Contatcs</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E20" s="22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C21" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="22">
-        <v>19</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25">
+        <v>42870</v>
+      </c>
+      <c r="G21" s="25">
+        <v>42872</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I21" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="22">
-        <v>20</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="25">
+        <v>42869</v>
+      </c>
+      <c r="G22" s="25">
+        <v>42870</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I22" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="25">
-        <v>42845</v>
+        <v>42870</v>
       </c>
       <c r="G23" s="25">
-        <v>42853</v>
+        <v>42870</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="25">
+        <v>42845</v>
+      </c>
+      <c r="G24" s="25">
+        <v>42853</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="str">
+        <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="25">
         <v>42856</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G25" s="25">
         <v>42867</v>
       </c>
-      <c r="H24" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>58</v>
+      <c r="H25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2">
-    <sortState ref="B3:I24">
+    <sortState ref="B3:I25">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E5:E6 E8:E22">
-    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+  <conditionalFormatting sqref="E3:E25">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
-      <formula>"~"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
-      <formula>"~"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H23" r:id="rId1"/>
-    <hyperlink ref="H24" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H25" r:id="rId2"/>
+    <hyperlink ref="H22" r:id="rId3"/>
+    <hyperlink ref="H21" r:id="rId4"/>
+    <hyperlink ref="H23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -2329,7 +2280,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,16 +2298,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="25">
         <v>42852</v>
@@ -2384,12 +2335,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="25">
         <v>42852</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>42867</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="str">
@@ -2400,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="25">
         <v>42852</v>
@@ -2416,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="25">
         <v>42852</v>
@@ -2432,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="25">
         <v>42852</v>
@@ -2442,11 +2395,17 @@
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="25"/>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="25">
+        <v>42870</v>
+      </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -274,9 +274,6 @@
     <t>Migrar 2016 (meses faltantes)</t>
   </si>
   <si>
-    <t>Migrar Maio via App</t>
-  </si>
-  <si>
     <t>Maio</t>
   </si>
   <si>
@@ -286,12 +283,6 @@
     <t>Julho</t>
   </si>
   <si>
-    <t>Migrar Março via App</t>
-  </si>
-  <si>
-    <t>Resumo sr E6 query etc (ref: março 2017)</t>
-  </si>
-  <si>
     <t>Migrar 2017 (meses faltantes)</t>
   </si>
   <si>
@@ -299,6 +290,15 @@
   </si>
   <si>
     <t>Mensagens confimaçã e info referente a Folha 15</t>
+  </si>
+  <si>
+    <t>Resumo sr E6 query etc (ref: abril 2017)</t>
+  </si>
+  <si>
+    <t>Migrar abril via App</t>
+  </si>
+  <si>
+    <t>Migrar maio via App</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1692,7 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="22">
         <v>2</v>
@@ -1750,7 +1750,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="22">
         <v>3</v>
@@ -1771,7 +1771,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E5" s="22">
         <v>4</v>
@@ -1792,7 +1792,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1876,7 +1876,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>65</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>65</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" s="25">
         <v>42870</v>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,25 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="15" windowWidth="6630" windowHeight="8115" tabRatio="751" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
     <sheet name="Projetos" sheetId="19" r:id="rId2"/>
     <sheet name="Backlog" sheetId="20" r:id="rId3"/>
-    <sheet name="Migração" sheetId="16" r:id="rId4"/>
+    <sheet name="Migração v2" sheetId="21" r:id="rId4"/>
+    <sheet name="Migração v1" sheetId="16" r:id="rId5"/>
+    <sheet name="SQL Views" sheetId="22" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Migração!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="271">
   <si>
     <t>Seq.</t>
   </si>
@@ -115,9 +118,6 @@
     <t>API - Mailchimp</t>
   </si>
   <si>
-    <t>Tableau</t>
-  </si>
-  <si>
     <t>Home Site</t>
   </si>
   <si>
@@ -202,9 +202,6 @@
     <t>Período</t>
   </si>
   <si>
-    <t>1º semestre 2017</t>
-  </si>
-  <si>
     <t>Marcar presenças</t>
   </si>
   <si>
@@ -238,12 +235,6 @@
     <t>Atividade</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Marcar presença: : Editar nome diretamente na lista. Considerar STATUS person, old_name separados por vírgula</t>
-  </si>
-  <si>
     <t>Marcar presença: ao adicionar pessoa, só acrescentar na grid, ou seja, não persiste nada. Reordena a grid com o nome adicionada sleecionado</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>github: Proteger senhas, token dropbox</t>
   </si>
   <si>
-    <t>config: em produção, jpa não faz muda a estrutura do banco DDL</t>
-  </si>
-  <si>
     <t>Registro</t>
   </si>
   <si>
@@ -265,46 +253,604 @@
     <t>CRUD Atividades e Pessoas</t>
   </si>
   <si>
-    <t>Release 1 produção</t>
-  </si>
-  <si>
     <t>Atenticação só para CA e AC</t>
   </si>
   <si>
-    <t>Migrar 2016 (meses faltantes)</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
-  </si>
-  <si>
-    <t>Migrar 2017 (meses faltantes)</t>
-  </si>
-  <si>
-    <t>Início de Junho</t>
-  </si>
-  <si>
-    <t>Mensagens confimaçã e info referente a Folha 15</t>
-  </si>
-  <si>
     <t>Resumo sr E6 query etc (ref: abril 2017)</t>
   </si>
   <si>
-    <t>Migrar abril via App</t>
-  </si>
-  <si>
     <t>Migrar maio via App</t>
+  </si>
+  <si>
+    <t>Política de backup recorrente DB prod</t>
+  </si>
+  <si>
+    <t>Presença e pessoa: validação dos campos de data.</t>
+  </si>
+  <si>
+    <t>Presença: Campo de data: se null, coloca dia de hoje</t>
+  </si>
+  <si>
+    <t>Presença: onfocus da data, desabilita a grid, e habilita on blur focus</t>
+  </si>
+  <si>
+    <t>Presença: ao alterar a data, entra em modo read only</t>
+  </si>
+  <si>
+    <t>Presença: persistir user e timestamp da marcação</t>
+  </si>
+  <si>
+    <t>Deploy: push no GitHub (acrescentar linha)</t>
+  </si>
+  <si>
+    <t>Deploy: add linha: em que pontos atualizar versão.</t>
+  </si>
+  <si>
+    <t>WB: align campos data form preto</t>
+  </si>
+  <si>
+    <t>WB: cor dos elementos da grid no form preto: de cinza para preto</t>
+  </si>
+  <si>
+    <t>JP: application[-dev, -prod].properties</t>
+  </si>
+  <si>
+    <t>JP: Heroku sync GitHub</t>
+  </si>
+  <si>
+    <t>JP: Casos de test no processo de build e deploy</t>
+  </si>
+  <si>
+    <t>JP: Política backup DB</t>
+  </si>
+  <si>
+    <t>JP: Remover senhas do GitHub tirar rastos</t>
+  </si>
+  <si>
+    <t>JP: Remover senhas do GitHub tirar rastos: 1. arquivo a parte com propriedades lidas pelo application.properties Ex: ${senha}</t>
+  </si>
+  <si>
+    <t>JP: Remover senhas do GitHub tirar rastos: 2. ignorar o sync no GitHub desse arquivo</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Migrar 2016</t>
+  </si>
+  <si>
+    <t>Migrar 2017 (até abril)</t>
+  </si>
+  <si>
+    <t>Virar para Produção: Junho/2017 em diante!</t>
+  </si>
+  <si>
+    <t>Usuário para segmentar por Centro: permite Sand Box</t>
+  </si>
+  <si>
+    <t>shortName em itálico, nome (u) ou (c) NEW</t>
+  </si>
+  <si>
+    <t>Presenças para atividades com título</t>
+  </si>
+  <si>
+    <t>Tableau - Zoho Reports</t>
+  </si>
+  <si>
+    <t>sg Migrar 2017</t>
+  </si>
+  <si>
+    <t>sg Migrar 2016</t>
+  </si>
+  <si>
+    <t>sg Migrar 2015</t>
+  </si>
+  <si>
+    <t>sg Migrar 2014</t>
+  </si>
+  <si>
+    <t>sg Migrar 2013</t>
+  </si>
+  <si>
+    <t>sg Migrar 2012</t>
+  </si>
+  <si>
+    <t>sg Migrar 2011</t>
+  </si>
+  <si>
+    <t>sg Migrar 2010</t>
+  </si>
+  <si>
+    <t>sg Migrar 2008</t>
+  </si>
+  <si>
+    <t>sg Migrar 2009</t>
+  </si>
+  <si>
+    <t>sg Resumo</t>
+  </si>
+  <si>
+    <t>sg Dashborad</t>
+  </si>
+  <si>
+    <t>sg Virar para Attendance em produção</t>
+  </si>
+  <si>
+    <t>Folha para anotar cdb-círculo / ou n usar app</t>
+  </si>
+  <si>
+    <t>Apres. Attendance Shintani, Miguel, Felipe Gualb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- **************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_attendance</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_attendance;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_attendance as</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_resumo_mensal_inner</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_resumo_mensal_inner;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_resumo_mensal_inner as</t>
+  </si>
+  <si>
+    <t>from     vw_attendance a, resumo_mensal r</t>
+  </si>
+  <si>
+    <t>where    r.id = resumo_mensal_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -- **************************</t>
+  </si>
+  <si>
+    <t>from     vw_resumo_mensal_inner</t>
+  </si>
+  <si>
+    <t>where    id = 4</t>
+  </si>
+  <si>
+    <t>and      check_universitario = 1</t>
+  </si>
+  <si>
+    <t>GROUP BY center_id, ano_mes</t>
+  </si>
+  <si>
+    <t>union ALL</t>
+  </si>
+  <si>
+    <t>and      check_colegial = 1</t>
+  </si>
+  <si>
+    <t>where    id = 6</t>
+  </si>
+  <si>
+    <t>where    id = 10</t>
+  </si>
+  <si>
+    <t>where    id = 12</t>
+  </si>
+  <si>
+    <t>where    id = 14</t>
+  </si>
+  <si>
+    <t>where    id = 15</t>
+  </si>
+  <si>
+    <t>where    id = 16</t>
+  </si>
+  <si>
+    <t>where    id = 20</t>
+  </si>
+  <si>
+    <t>where    id = 22</t>
+  </si>
+  <si>
+    <t>where    id = 24</t>
+  </si>
+  <si>
+    <t>from     vw_resumo_mensal_inner i</t>
+  </si>
+  <si>
+    <t>where    i.id in (select id from resumo_mensal)</t>
+  </si>
+  <si>
+    <t>and      check_universitario &lt;&gt; 1</t>
+  </si>
+  <si>
+    <t>and      check_colegial &lt;&gt; 1</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_resumo_sr;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_resumo_sr as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -- vw_resumo_sr</t>
+  </si>
+  <si>
+    <t>from     resumo_mensal</t>
+  </si>
+  <si>
+    <t>where    labor = 'sr'</t>
+  </si>
+  <si>
+    <t>Clube: Resumo</t>
+  </si>
+  <si>
+    <t>Clube: Viabilidade e pasar a usar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_resumo_mensal_avg</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_resumo_mensal_avg;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_resumo_mensal_avg as</t>
+  </si>
+  <si>
+    <t>from     vw_resumo_mensal_inner v</t>
+  </si>
+  <si>
+    <t>from     vw_resumo_mensal_avg</t>
+  </si>
+  <si>
+    <t>where    id = 17</t>
+  </si>
+  <si>
+    <t>from     vw_resumo_mensal_avg v</t>
+  </si>
+  <si>
+    <t>select  t.id attendance_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,t.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,t.activity_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,t.person_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,a.description activity_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,a.name activity_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,a.name_complement activity_name_complement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,a.resumo_mensal_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.tag1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.tag2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.tag3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.tag4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_contribui_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_cooperador_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_estudante_mail_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_estudantewadate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_profissional_mail_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.check_profissionalwadate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,c.id center_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,c.description center_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,c.name center_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,c.owner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,u.email owner_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,u.name owner_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,u.username owner_username</t>
+  </si>
+  <si>
+    <t>from attendance t, activity a, person p, center c, user u</t>
+  </si>
+  <si>
+    <t>where t.activity_id = a.id</t>
+  </si>
+  <si>
+    <t>and t.person_id = p.id</t>
+  </si>
+  <si>
+    <t>and a.center_id = c.id</t>
+  </si>
+  <si>
+    <t>and c.owner_id = u.id;</t>
+  </si>
+  <si>
+    <t>SELECT   distinct center_id, date_format(date, '%Y') ano, date_format(date, '%Y/%m') ano_mes, a.person_id, name nome, check_universitario, check_colegial, r.*</t>
+  </si>
+  <si>
+    <t>SELECT   center_id, date_format(date, '%Y') ano, date_format(date, '%Y/%m') ano_mes, a.person_id, name nome, check_universitario, check_colegial, r.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select   'center_id', 'ano', 'ano_mes', id, numero, letra, descricao, letra_descricao_nota, descricao_nota, 0 total </t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, id, numero, letra, descricao, letra_descricao_nota, descricao_nota, count(*) total</t>
+  </si>
+  <si>
+    <t>GROUP BY center_id, ano, ano_mes</t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, (id+1), numero, 'b', (select descricao from resumo_mensal where id = (v.id+1)), letra_descricao_nota, descricao_nota, count(*) total</t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, id, numero, letra, descricao, letra_descricao_nota, descricao_nota, round(count(*)/4) media</t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, (id+1), numero, 'b', (select descricao from resumo_mensal where id = (v.id+1)), letra_descricao_nota, descricao_nota, round(count(*)/4) media</t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, 1, '' numero, '' letra, '* SEM LABOR' descricao, '' letra_descricao_nota, '' descricao_nota, count(*)</t>
+  </si>
+  <si>
+    <t>select   center_id, ano, ano_mes, 1, '' numero, '' letra, '* U + C' descricao, '' letra_descricao_nota, '' descricao_nota, count(*)</t>
+  </si>
+  <si>
+    <t>GROUP BY center_id, ano, ano_mes;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_person</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_person;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_person as</t>
+  </si>
+  <si>
+    <t>from person p;</t>
+  </si>
+  <si>
+    <t>Desp: listar últimos 60 dias</t>
+  </si>
+  <si>
+    <t>Mensagens confimação e info referente a Folha 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.name_complement = 'sr', 1, 0) sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.name_complement = 'sg', 1, 0) sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 1, 1, 0) sr_direcao_espiritual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 2, 1, 0) sr_meditacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 3, 1, 0) sr_recolhimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 4, 1, 0) sr_curso_basico_doutrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 5, 1, 0) sr_catequese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id in (6,10,11), 1, 0) sr_circulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 7, 1, 0) sr_retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 8, 1, 0) sr_convivio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(a.id = 9, 1, 0) sr_vpv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_colegial = 1, '1','0') check_colegial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_universitario = 1, '1','0') check_universitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_contribui = 1, '1','0') check_contribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_cooperador = 1, '1','0') check_cooperador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_estudante_mail = 1, '1','0') check_estudante_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_estudantewa = 1, '1','0') check_estudantewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_profissional_mail = 1, '1','0') check_profissional_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(p.check_profissionalwa = 1, '1','0') check_profissionalwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from vw_attendance where person_id = p.id and activity_name_complement = 'sr') sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from vw_attendance where person_id = p.id and activity_name_complement = 'sg') sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 1) sr_direcao_espiritual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 2) sr_meditacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 3) sr_recolhimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 4) sr_curso_basico_doutrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 5) sr_catequese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id in (6,10,11)) sr_circulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 7) sr_retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 8) sr_convivio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 9) sr_vpv</t>
+  </si>
+  <si>
+    <t>select  p.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,p.center_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_person_count</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_person_count;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_person_count as</t>
+  </si>
+  <si>
+    <t>-- **************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          select 01 id, 'ps' type, count(*) total, '01. Nomes' aspect from vw_person where center_id = 1</t>
+  </si>
+  <si>
+    <t>union all select 02 id, 'ps' type, count(*) total, '02. NEW' aspect from vw_person where center_id = 1 and `status` = 0</t>
+  </si>
+  <si>
+    <t>union all select 03 id, 'ps' type, count(*) total, '03. Nomes curtos' aspect from vw_person where center_id = 1 and short_name is not null</t>
+  </si>
+  <si>
+    <t>union all select 04 id, 'sr' type, count(*) total, '04. Universitários' aspect from vw_person where center_id = 1 and check_universitario = 1</t>
+  </si>
+  <si>
+    <t>union all select 05 id, 'sr' type, count(*) total, '05. Colegiais' aspect from vw_person where center_id = 1 and check_colegial = 1</t>
+  </si>
+  <si>
+    <t>union all select 06 id, 'ps' type, count(*) total, '06. Com telefone' aspect from vw_person where center_id = 1 and phone is not null</t>
+  </si>
+  <si>
+    <t>union all select 07 id, 'ps' type, count(*) total, '07. Sem telefone' aspect from vw_person where center_id = 1 and phone is null</t>
+  </si>
+  <si>
+    <t>union all select 08 id, 'ps' type, count(*) total, '08. Com aniversário' aspect from vw_person where center_id = 1 and birthday is not null</t>
+  </si>
+  <si>
+    <t>union all select 09 id, 'ps' type, count(*) total, '09. Sem aniversário' aspect from vw_person where center_id = 1 and birthday is null</t>
+  </si>
+  <si>
+    <t>union all select 10 id, 'ps' type, count(*) total, '10. Com e-mail' aspect from vw_person where center_id = 1 and email is not null</t>
+  </si>
+  <si>
+    <t>union all select 11 id, 'ps' type, count(*) total, '11. Sem e-mail' aspect from vw_person where center_id = 1 and email is null</t>
+  </si>
+  <si>
+    <t>union all select 12 id, 'sr' type, count(*) total, '12. Lista do WhatsApp de sr' aspect from vw_person where center_id = 1 and check_estudantewa = 1</t>
+  </si>
+  <si>
+    <t>union all select 13 id, 'sr' type, count(*) total, '13. Lista de e-mail de sr' aspect from vw_person where center_id = 1 and check_estudante_mail = 1</t>
+  </si>
+  <si>
+    <t>union all select 14 id, 'sg' type, count(*) total, '14. Cooperadores' aspect from vw_person where center_id = 1 and check_cooperador = 1</t>
+  </si>
+  <si>
+    <t>union all select 15 id, 'sg' type, count(*) total, '15. Cooperadores que contribuem (R$)' aspect from vw_person where center_id = 1 and check_contribui = 1</t>
+  </si>
+  <si>
+    <t>union all select 16 id, 'sg' type, count(*) total, '16. Lista do WhatsApp de sg' aspect from vw_person where center_id = 1 and check_profissionalwa = 1</t>
+  </si>
+  <si>
+    <t>union all select 17 id, 'sg' type, count(*) total, '17. Lista de e-mail de sg' aspect from vw_person where center_id = 1 and check_profissional_mail = 1;</t>
+  </si>
+  <si>
+    <t>Tornar dinâmico campos amarelos de resumo de junho</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Marcar presença: Editar nome diretamente na lista. Considerar STATUS person, old_name separados por vírgula</t>
+  </si>
+  <si>
+    <t>config: em produção, jpa não muda a estrutura do banco DDL</t>
+  </si>
+  <si>
+    <t>Nova versão: Backlog</t>
+  </si>
+  <si>
+    <t>Seq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +914,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +947,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -478,7 +1018,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,19 +1034,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -515,6 +1060,42 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1045,38 +1626,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -1118,7 +1667,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1156,7 +1705,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1191,6 +1740,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1226,9 +1792,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1405,7 +1988,7 @@
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -1464,7 +2047,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
@@ -1497,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>1</v>
@@ -1544,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D14" s="22"/>
     </row>
@@ -1553,7 +2136,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="22"/>
     </row>
@@ -1562,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="22"/>
     </row>
@@ -1571,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="22"/>
     </row>
@@ -1580,7 +2163,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="22"/>
     </row>
@@ -1589,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="22"/>
     </row>
@@ -1598,7 +2181,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="22"/>
     </row>
@@ -1607,7 +2190,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="22"/>
     </row>
@@ -1616,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="22"/>
     </row>
@@ -1625,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="22"/>
     </row>
@@ -1634,7 +2217,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="22"/>
     </row>
@@ -1643,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="22"/>
     </row>
@@ -1652,7 +2235,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="22"/>
     </row>
@@ -1661,7 +2244,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="22"/>
     </row>
@@ -1689,21 +2272,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.375" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="21" customWidth="1"/>
     <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
     <col min="9" max="9" width="34.75" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1714,212 +2299,222 @@
         <v>19</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="20" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="33">
+        <v>42917</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>API - Dropbox</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>87</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="22">
-        <v>3</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="20" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="33">
+        <v>42917</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="22">
         <v>3</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="22">
-        <v>4</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="20" t="s">
-        <v>85</v>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="33">
+        <v>42917</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="22">
-        <v>5</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="20" t="s">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="33">
+        <v>42948</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="22">
-        <v>6</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="20" t="s">
-        <v>82</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="33">
+        <v>42948</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E8" s="22">
-        <v>7</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="20" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="33">
+        <v>42948</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E9" s="22">
-        <v>8</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="33">
+        <v>43009</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E10" s="22">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau</v>
+        <v>DB</v>
       </c>
       <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="E11" s="22">
-        <v>10</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
@@ -1930,101 +2525,111 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="22">
-        <v>11</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="20" t="s">
-        <v>82</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24">
+        <v>42845</v>
+      </c>
+      <c r="G12" s="24">
+        <v>42853</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="22">
-        <v>12</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="24">
+        <v>42856</v>
+      </c>
+      <c r="G13" s="24">
+        <v>42867</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="22">
-        <v>13</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="24">
+        <v>42869</v>
+      </c>
+      <c r="G14" s="24">
+        <v>42870</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="22">
-        <v>14</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24">
+        <v>42870</v>
+      </c>
+      <c r="G15" s="24">
+        <v>42870</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="22">
-        <v>15</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24">
+        <v>42870</v>
+      </c>
+      <c r="G16" s="24">
+        <v>42872</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
@@ -2035,213 +2640,593 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="22">
-        <v>16</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="24">
+        <v>42875</v>
+      </c>
+      <c r="G17" s="24">
+        <v>42875</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="22">
-        <v>17</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="20" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24">
+        <v>42887</v>
+      </c>
+      <c r="G18" s="24">
+        <v>42887</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="33">
+        <v>42856</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="22">
-        <v>18</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="24">
+        <v>42887</v>
+      </c>
+      <c r="G19" s="24">
+        <v>42893</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="33">
+        <v>42856</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
+        <v>Front - Web</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="24">
+        <v>42887</v>
+      </c>
+      <c r="G20" s="24">
+        <v>42893</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="22">
-        <v>19</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="20" t="s">
-        <v>83</v>
+      <c r="I20" s="33">
+        <v>42856</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="25">
-        <v>42870</v>
-      </c>
-      <c r="G21" s="25">
-        <v>42872</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>81</v>
+      <c r="F21" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G21" s="24">
+        <v>42912</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="33">
+        <v>42887</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="25">
-        <v>42869</v>
-      </c>
-      <c r="G22" s="25">
-        <v>42870</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>81</v>
+      <c r="F22" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G22" s="24">
+        <v>42916</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="33">
+        <v>42887</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="25">
-        <v>42870</v>
-      </c>
-      <c r="G23" s="25">
-        <v>42870</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>81</v>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="33">
+        <v>43009</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="25">
-        <v>42845</v>
-      </c>
-      <c r="G24" s="25">
-        <v>42853</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>57</v>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="33">
+        <v>43009</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="25">
-        <v>42856</v>
-      </c>
-      <c r="G25" s="25">
-        <v>42867</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>57</v>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="str">
+        <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="str">
+        <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="str">
+        <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="str">
+        <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="str">
+        <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="str">
+        <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="str">
+        <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="str">
+        <f>IF(C33="","",VLOOKUP(C33,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="str">
+        <f>IF(C34="","",VLOOKUP(C34,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="str">
+        <f>IF(C35="","",VLOOKUP(C35,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="str">
+        <f>IF(C36="","",VLOOKUP(C36,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="str">
+        <f>IF(C37="","",VLOOKUP(C37,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="str">
+        <f>IF(C38="","",VLOOKUP(C38,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="str">
+        <f>IF(C39="","",VLOOKUP(C39,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="str">
+        <f>IF(C40="","",VLOOKUP(C40,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="str">
+        <f>IF(C41="","",VLOOKUP(C41,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="33">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="str">
+        <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="33">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="str">
+        <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="33">
+        <v>43070</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2">
-    <sortState ref="B3:I25">
+    <sortState ref="B3:I43">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="E3:E43">
     <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2252,341 +3237,1241 @@
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E25">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
-      <formula>"~"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
-      <formula>"n/a"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1"/>
-    <hyperlink ref="H25" r:id="rId2"/>
-    <hyperlink ref="H22" r:id="rId3"/>
-    <hyperlink ref="H21" r:id="rId4"/>
-    <hyperlink ref="H23" r:id="rId5"/>
+    <hyperlink ref="H12" r:id="rId1"/>
+    <hyperlink ref="H13" r:id="rId2"/>
+    <hyperlink ref="H14" r:id="rId3"/>
+    <hyperlink ref="H16" r:id="rId4"/>
+    <hyperlink ref="H15" r:id="rId5"/>
+    <hyperlink ref="H19" r:id="rId6"/>
+    <hyperlink ref="H21" r:id="rId7"/>
+    <hyperlink ref="H20" r:id="rId8"/>
+    <hyperlink ref="H18" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId10"/>
+    <hyperlink ref="H36" r:id="rId11"/>
+    <hyperlink ref="H22" r:id="rId12"/>
+    <hyperlink ref="H23" r:id="rId13"/>
+    <hyperlink ref="H24" r:id="rId14"/>
+    <hyperlink ref="H25" r:id="rId15"/>
+    <hyperlink ref="H26" r:id="rId16"/>
+    <hyperlink ref="H6" r:id="rId17"/>
+    <hyperlink ref="H7" r:id="rId18"/>
+    <hyperlink ref="H4" r:id="rId19"/>
+    <hyperlink ref="H5" r:id="rId20"/>
+    <hyperlink ref="H8" r:id="rId21"/>
+    <hyperlink ref="H9" r:id="rId22"/>
+    <hyperlink ref="H27" r:id="rId23"/>
+    <hyperlink ref="H28" r:id="rId24"/>
+    <hyperlink ref="H29" r:id="rId25"/>
+    <hyperlink ref="H30" r:id="rId26"/>
+    <hyperlink ref="H31" r:id="rId27"/>
+    <hyperlink ref="H32" r:id="rId28"/>
+    <hyperlink ref="H33" r:id="rId29"/>
+    <hyperlink ref="H34" r:id="rId30"/>
+    <hyperlink ref="H35" r:id="rId31"/>
+    <hyperlink ref="H37" r:id="rId32"/>
+    <hyperlink ref="H38" r:id="rId33"/>
+    <hyperlink ref="H39" r:id="rId34"/>
+    <hyperlink ref="H40" r:id="rId35"/>
+    <hyperlink ref="H41" r:id="rId36"/>
+    <hyperlink ref="H42" r:id="rId37"/>
+    <hyperlink ref="H43" r:id="rId38"/>
+    <hyperlink ref="H3" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:G83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="25" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="30" customWidth="1"/>
+    <col min="5" max="5" width="109.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="str">
+        <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="str">
-        <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C3" s="29">
-        <v>3</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="F3" s="24">
         <v>42852</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="str">
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="24">
         <v>42852</v>
       </c>
-      <c r="F4" s="25">
-        <v>42867</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="str">
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="25">
-        <v>42852</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="str">
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="25">
-        <v>42852</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="str">
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="25">
-        <v>42852</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="str">
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="25">
+      <c r="F8" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="str">
+        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C9" s="28">
+        <v>2</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="str">
+        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="str">
+        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="str">
+        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C12" s="28">
+        <v>2</v>
+      </c>
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="str">
+        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C13" s="28">
+        <v>2</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="str">
+        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="str">
+        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C15" s="28">
+        <v>9</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42921</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="str">
+        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>99</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="24">
+        <v>42852</v>
+      </c>
+      <c r="G16" s="24">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="str">
+        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C17" s="28">
+        <v>3</v>
+      </c>
+      <c r="D17" s="28">
+        <v>99</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G17" s="24">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="str">
+        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C18" s="28">
+        <v>3</v>
+      </c>
+      <c r="D18" s="28">
+        <v>99</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G18" s="24">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="str">
+        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>99</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="24">
+        <v>42852</v>
+      </c>
+      <c r="G19" s="24">
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="str">
+        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>99</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="24">
+        <v>42852</v>
+      </c>
+      <c r="G20" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="str">
+        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C21" s="28">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28">
+        <v>99</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G21" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="str">
+        <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C22" s="28">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28">
+        <v>99</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G22" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="str">
+        <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C23" s="28">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>99</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G23" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="str">
+        <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C24" s="28">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28">
+        <v>99</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G24" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="str">
+        <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C25" s="28">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28">
+        <v>99</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="24">
+        <v>42877</v>
+      </c>
+      <c r="G25" s="24">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="str">
+        <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C26" s="28">
+        <v>2</v>
+      </c>
+      <c r="D26" s="28">
+        <v>99</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="24">
+        <v>42873</v>
+      </c>
+      <c r="G26" s="24">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="str">
+        <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C27" s="28">
+        <v>2</v>
+      </c>
+      <c r="D27" s="28">
+        <v>99</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="24">
+        <v>42879</v>
+      </c>
+      <c r="G27" s="24">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="str">
+        <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C28" s="28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="28">
+        <v>99</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="24">
         <v>42870</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="str">
-        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+      <c r="G28" s="24">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="str">
+        <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C29" s="28">
+        <v>2</v>
+      </c>
+      <c r="D29" s="28">
+        <v>99</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="24">
+        <v>42919</v>
+      </c>
+      <c r="G29" s="24">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="str">
+        <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="str">
+        <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="str">
-        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="str">
+        <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="str">
-        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="str">
+        <f>IF(C33="","",VLOOKUP(C33,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="str">
-        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="str">
+        <f>IF(C34="","",VLOOKUP(C34,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="str">
+        <f>IF(C35="","",VLOOKUP(C35,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27" t="str">
+        <f>IF(C36="","",VLOOKUP(C36,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="str">
+        <f>IF(C37="","",VLOOKUP(C37,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="27" t="str">
+        <f>IF(C38="","",VLOOKUP(C38,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="27" t="str">
+        <f>IF(C39="","",VLOOKUP(C39,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="str">
+        <f>IF(C40="","",VLOOKUP(C40,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="str">
-        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="27" t="str">
+        <f>IF(C41="","",VLOOKUP(C41,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="str">
-        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27" t="str">
+        <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="str">
-        <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="str">
+        <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="str">
-        <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="str">
+        <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="str">
-        <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="str">
+        <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="str">
-        <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="27" t="str">
+        <f>IF(C46="","",VLOOKUP(C46,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="27" t="str">
+        <f>IF(C47="","",VLOOKUP(C47,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="27" t="str">
+        <f>IF(C48="","",VLOOKUP(C48,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="27" t="str">
+        <f>IF(C49="","",VLOOKUP(C49,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="str">
+        <f>IF(C50="","",VLOOKUP(C50,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="str">
+        <f>IF(C51="","",VLOOKUP(C51,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="str">
+        <f>IF(C52="","",VLOOKUP(C52,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="str">
+        <f>IF(C53="","",VLOOKUP(C53,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="str">
+        <f>IF(C54="","",VLOOKUP(C54,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="str">
+        <f>IF(C55="","",VLOOKUP(C55,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="27" t="str">
+        <f>IF(C56="","",VLOOKUP(C56,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="27" t="str">
+        <f>IF(C57="","",VLOOKUP(C57,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="str">
+        <f>IF(C58="","",VLOOKUP(C58,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="27" t="str">
+        <f>IF(C59="","",VLOOKUP(C59,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="str">
+        <f>IF(C60="","",VLOOKUP(C60,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="str">
+        <f>IF(C61="","",VLOOKUP(C61,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="str">
+        <f>IF(C62="","",VLOOKUP(C62,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="27" t="str">
+        <f>IF(C63="","",VLOOKUP(C63,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="str">
+        <f>IF(C64="","",VLOOKUP(C64,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="str">
+        <f>IF(C65="","",VLOOKUP(C65,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="27" t="str">
+        <f>IF(C66="","",VLOOKUP(C66,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="27" t="str">
+        <f>IF(C67="","",VLOOKUP(C67,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="27" t="str">
+        <f>IF(C68="","",VLOOKUP(C68,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="str">
+        <f>IF(C69="","",VLOOKUP(C69,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="27" t="str">
+        <f>IF(C70="","",VLOOKUP(C70,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="27" t="str">
+        <f>IF(C71="","",VLOOKUP(C71,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="27" t="str">
+        <f>IF(C72="","",VLOOKUP(C72,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="27" t="str">
+        <f>IF(C73="","",VLOOKUP(C73,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="27" t="str">
+        <f>IF(C74="","",VLOOKUP(C74,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="27" t="str">
+        <f>IF(C75="","",VLOOKUP(C75,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="27" t="str">
+        <f>IF(C76="","",VLOOKUP(C76,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+    </row>
+    <row r="77" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="27" t="str">
+        <f>IF(C77="","",VLOOKUP(C77,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="27" t="str">
+        <f>IF(C78="","",VLOOKUP(C78,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="27" t="str">
+        <f>IF(C79="","",VLOOKUP(C79,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="27" t="str">
+        <f>IF(C80="","",VLOOKUP(C80,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="27" t="str">
+        <f>IF(C81="","",VLOOKUP(C81,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="str">
+        <f>IF(C82="","",VLOOKUP(C82,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="str">
+        <f>IF(C83="","",VLOOKUP(C83,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:F25">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+  <autoFilter ref="B2:G2">
+    <sortState ref="B3:G83">
+      <sortCondition ref="D2"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F3:G83">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2597,11 +4482,219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="3" customWidth="1"/>
+    <col min="4" max="8" width="6.25" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:H11">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,4 +6153,1284 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A274"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="E264" sqref="E264"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="276">
   <si>
     <t>Seq.</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Marcar presenças</t>
   </si>
   <si>
-    <t>Atenticação e autorização</t>
-  </si>
-  <si>
     <t>Conclusão</t>
   </si>
   <si>
@@ -845,6 +842,24 @@
   </si>
   <si>
     <t>Seq</t>
+  </si>
+  <si>
+    <t>presenças: expandir linha título</t>
+  </si>
+  <si>
+    <t>presenças: mais de 30 dias, não mostra mais o nr de dias</t>
+  </si>
+  <si>
+    <t>CRUD: Sharing</t>
+  </si>
+  <si>
+    <t>WB: Seção do usuário no menu: responsividade, username, combo (tamanho)</t>
+  </si>
+  <si>
+    <t>CRUD: User + Autenticação (hashPassword...)</t>
+  </si>
+  <si>
+    <t>Autorização</t>
   </si>
 </sst>
 </file>
@@ -2127,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="22"/>
     </row>
@@ -2272,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,16 +2317,16 @@
         <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>55</v>
@@ -2326,15 +2341,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="24">
+        <v>42930</v>
+      </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="33">
         <v>42917</v>
@@ -2343,21 +2360,21 @@
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="E4" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="33">
         <v>42917</v>
@@ -2366,21 +2383,21 @@
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="E5" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="33">
         <v>42917</v>
@@ -2403,7 +2420,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="33">
         <v>42948</v>
@@ -2426,7 +2443,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="33">
         <v>42948</v>
@@ -2441,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="22">
         <v>11</v>
@@ -2449,7 +2466,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="33">
         <v>42948</v>
@@ -2464,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="22">
         <v>12</v>
@@ -2472,7 +2489,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="33">
         <v>43009</v>
@@ -2487,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="22">
         <v>13</v>
@@ -2506,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="22">
         <v>14</v>
@@ -2525,40 +2542,42 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="24">
-        <v>42845</v>
+        <v>42927</v>
       </c>
       <c r="G12" s="24">
-        <v>42853</v>
+        <v>42928</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="I12" s="33">
+        <v>42917</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="24">
-        <v>42856</v>
+        <v>42916</v>
       </c>
       <c r="G13" s="24">
-        <v>42867</v>
+        <v>42923</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="33"/>
     </row>
@@ -2571,17 +2590,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="24">
-        <v>42869</v>
+        <v>42845</v>
       </c>
       <c r="G14" s="24">
-        <v>42870</v>
+        <v>42853</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -2594,17 +2613,17 @@
         <v>3</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24">
-        <v>42870</v>
+        <v>42856</v>
       </c>
       <c r="G15" s="24">
-        <v>42870</v>
+        <v>42867</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="33"/>
     </row>
@@ -2617,67 +2636,65 @@
         <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="24">
+        <v>42869</v>
+      </c>
+      <c r="G16" s="24">
         <v>42870</v>
       </c>
-      <c r="G16" s="24">
-        <v>42872</v>
-      </c>
       <c r="H16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="24">
-        <v>42875</v>
+        <v>42870</v>
       </c>
       <c r="G17" s="24">
-        <v>42875</v>
+        <v>42870</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="24">
-        <v>42887</v>
+        <v>42870</v>
       </c>
       <c r="G18" s="24">
-        <v>42887</v>
+        <v>42872</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="33">
-        <v>42856</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
@@ -2688,21 +2705,19 @@
         <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="24">
-        <v>42887</v>
+        <v>42875</v>
       </c>
       <c r="G19" s="24">
-        <v>42893</v>
+        <v>42875</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="33">
-        <v>42856</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
@@ -2713,142 +2728,138 @@
         <v>3</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="24">
         <v>42887</v>
       </c>
       <c r="G20" s="24">
-        <v>42893</v>
+        <v>42887</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="33">
-        <v>42856</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>DB</v>
       </c>
       <c r="C21" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="24">
-        <v>42894</v>
+        <v>42887</v>
       </c>
       <c r="G21" s="24">
-        <v>42912</v>
+        <v>42893</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="33">
-        <v>42887</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="24">
-        <v>42894</v>
+        <v>42887</v>
       </c>
       <c r="G22" s="24">
-        <v>42916</v>
+        <v>42893</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="33">
-        <v>42887</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G23" s="24">
+        <v>42912</v>
+      </c>
       <c r="H23" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G24" s="24">
+        <v>42916</v>
+      </c>
       <c r="H24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>DB</v>
       </c>
       <c r="C25" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C26" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>112</v>
@@ -2857,53 +2868,47 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="str">
         <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="str">
@@ -2914,17 +2919,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="str">
@@ -2935,17 +2938,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="str">
@@ -2956,17 +2957,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="str">
@@ -2977,17 +2976,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="str">
@@ -2998,17 +2995,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
@@ -3019,17 +3014,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="str">
@@ -3040,17 +3033,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="33">
-        <v>43040</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="str">
@@ -3061,17 +3052,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="str">
@@ -3082,17 +3071,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="str">
@@ -3103,17 +3090,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I38" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="str">
@@ -3124,17 +3109,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="str">
@@ -3145,17 +3128,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="str">
@@ -3166,67 +3147,99 @@
         <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="33">
-        <v>43009</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="str">
         <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C42" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="33">
-        <v>43070</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="str">
         <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
+        <v>DB</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="33">
-        <v>43070</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="str">
+        <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="str">
+        <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I2">
-    <sortState ref="B3:I43">
+    <sortState ref="B3:I45">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E3:E43">
+  <conditionalFormatting sqref="E3:E45">
     <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3238,48 +3251,50 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H12" r:id="rId1"/>
-    <hyperlink ref="H13" r:id="rId2"/>
-    <hyperlink ref="H14" r:id="rId3"/>
-    <hyperlink ref="H16" r:id="rId4"/>
-    <hyperlink ref="H15" r:id="rId5"/>
-    <hyperlink ref="H19" r:id="rId6"/>
-    <hyperlink ref="H21" r:id="rId7"/>
-    <hyperlink ref="H20" r:id="rId8"/>
-    <hyperlink ref="H18" r:id="rId9"/>
-    <hyperlink ref="H17" r:id="rId10"/>
-    <hyperlink ref="H36" r:id="rId11"/>
-    <hyperlink ref="H22" r:id="rId12"/>
-    <hyperlink ref="H23" r:id="rId13"/>
-    <hyperlink ref="H24" r:id="rId14"/>
-    <hyperlink ref="H25" r:id="rId15"/>
-    <hyperlink ref="H26" r:id="rId16"/>
+    <hyperlink ref="H14" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H18" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H21" r:id="rId6"/>
+    <hyperlink ref="H23" r:id="rId7"/>
+    <hyperlink ref="H22" r:id="rId8"/>
+    <hyperlink ref="H20" r:id="rId9"/>
+    <hyperlink ref="H19" r:id="rId10"/>
+    <hyperlink ref="H38" r:id="rId11"/>
+    <hyperlink ref="H24" r:id="rId12"/>
+    <hyperlink ref="H25" r:id="rId13"/>
+    <hyperlink ref="H26" r:id="rId14"/>
+    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H28" r:id="rId16"/>
     <hyperlink ref="H6" r:id="rId17"/>
     <hyperlink ref="H7" r:id="rId18"/>
-    <hyperlink ref="H4" r:id="rId19"/>
-    <hyperlink ref="H5" r:id="rId20"/>
+    <hyperlink ref="H12" r:id="rId19"/>
+    <hyperlink ref="H3" r:id="rId20"/>
     <hyperlink ref="H8" r:id="rId21"/>
     <hyperlink ref="H9" r:id="rId22"/>
-    <hyperlink ref="H27" r:id="rId23"/>
-    <hyperlink ref="H28" r:id="rId24"/>
-    <hyperlink ref="H29" r:id="rId25"/>
-    <hyperlink ref="H30" r:id="rId26"/>
-    <hyperlink ref="H31" r:id="rId27"/>
-    <hyperlink ref="H32" r:id="rId28"/>
-    <hyperlink ref="H33" r:id="rId29"/>
-    <hyperlink ref="H34" r:id="rId30"/>
-    <hyperlink ref="H35" r:id="rId31"/>
-    <hyperlink ref="H37" r:id="rId32"/>
-    <hyperlink ref="H38" r:id="rId33"/>
-    <hyperlink ref="H39" r:id="rId34"/>
-    <hyperlink ref="H40" r:id="rId35"/>
-    <hyperlink ref="H41" r:id="rId36"/>
-    <hyperlink ref="H42" r:id="rId37"/>
-    <hyperlink ref="H43" r:id="rId38"/>
-    <hyperlink ref="H3" r:id="rId39"/>
+    <hyperlink ref="H29" r:id="rId23"/>
+    <hyperlink ref="H30" r:id="rId24"/>
+    <hyperlink ref="H31" r:id="rId25"/>
+    <hyperlink ref="H32" r:id="rId26"/>
+    <hyperlink ref="H33" r:id="rId27"/>
+    <hyperlink ref="H34" r:id="rId28"/>
+    <hyperlink ref="H35" r:id="rId29"/>
+    <hyperlink ref="H36" r:id="rId30"/>
+    <hyperlink ref="H37" r:id="rId31"/>
+    <hyperlink ref="H39" r:id="rId32"/>
+    <hyperlink ref="H40" r:id="rId33"/>
+    <hyperlink ref="H41" r:id="rId34"/>
+    <hyperlink ref="H42" r:id="rId35"/>
+    <hyperlink ref="H43" r:id="rId36"/>
+    <hyperlink ref="H44" r:id="rId37"/>
+    <hyperlink ref="H45" r:id="rId38"/>
+    <hyperlink ref="H13" r:id="rId39"/>
+    <hyperlink ref="H4" r:id="rId40"/>
+    <hyperlink ref="H5" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -3287,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,94 +3323,90 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C3" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="F3" s="24">
-        <v>42852</v>
+        <v>42928</v>
       </c>
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F4" s="24">
-        <v>42852</v>
+        <v>42927</v>
       </c>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28">
         <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="F5" s="24">
-        <v>42873</v>
+        <v>42927</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C6" s="28">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
       <c r="E6" s="29" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="F6" s="24">
-        <v>42873</v>
+        <v>42921</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -3408,13 +3419,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="F7" s="24">
-        <v>42873</v>
+        <v>42852</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -3427,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F8" s="24">
         <v>42873</v>
@@ -3446,10 +3457,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F9" s="24">
         <v>42873</v>
@@ -3465,13 +3476,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F10" s="24">
-        <v>42873</v>
+        <v>42852</v>
       </c>
       <c r="G10" s="24"/>
     </row>
@@ -3484,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F11" s="24">
         <v>42873</v>
@@ -3503,10 +3514,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="24">
         <v>42873</v>
@@ -3522,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13" s="24">
         <v>42873</v>
@@ -3541,10 +3552,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="24">
         <v>42873</v>
@@ -3554,19 +3565,19 @@
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C15" s="28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="F15" s="24">
-        <v>42921</v>
+        <v>42873</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -3579,79 +3590,73 @@
         <v>2</v>
       </c>
       <c r="D16" s="28">
-        <v>99</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F16" s="24">
-        <v>42852</v>
-      </c>
-      <c r="G16" s="24">
-        <v>42867</v>
-      </c>
+        <v>42873</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C17" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="28">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" s="24">
         <v>42873</v>
       </c>
-      <c r="G17" s="24">
-        <v>42873</v>
-      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C18" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="28">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F18" s="24">
         <v>42873</v>
       </c>
-      <c r="G18" s="24">
-        <v>42873</v>
-      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C19" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="28">
         <v>99</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>68</v>
+      <c r="E19" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="F19" s="24">
         <v>42852</v>
       </c>
       <c r="G19" s="24">
-        <v>42875</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,14 +3670,14 @@
       <c r="D20" s="28">
         <v>99</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>267</v>
+      <c r="E20" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="F20" s="24">
-        <v>42852</v>
+        <v>42873</v>
       </c>
       <c r="G20" s="24">
-        <v>42922</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,35 +3691,35 @@
       <c r="D21" s="28">
         <v>99</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>77</v>
+      <c r="E21" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="24">
         <v>42873</v>
       </c>
       <c r="G21" s="24">
-        <v>42922</v>
+        <v>42873</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C22" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="28">
         <v>99</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>78</v>
+      <c r="E22" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="24">
-        <v>42873</v>
+        <v>42852</v>
       </c>
       <c r="G22" s="24">
-        <v>42922</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,10 +3734,10 @@
         <v>99</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="F23" s="24">
-        <v>42873</v>
+        <v>42852</v>
       </c>
       <c r="G23" s="24">
         <v>42922</v>
@@ -3749,8 +3754,8 @@
       <c r="D24" s="28">
         <v>99</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>80</v>
+      <c r="E24" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="F24" s="24">
         <v>42873</v>
@@ -3771,10 +3776,10 @@
         <v>99</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F25" s="24">
-        <v>42877</v>
+        <v>42873</v>
       </c>
       <c r="G25" s="24">
         <v>42922</v>
@@ -3783,64 +3788,64 @@
     <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C26" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="28">
         <v>99</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="24">
         <v>42873</v>
       </c>
       <c r="G26" s="24">
-        <v>42923</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="str">
         <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C27" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="28">
         <v>99</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>99</v>
+      <c r="E27" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="24">
-        <v>42879</v>
+        <v>42873</v>
       </c>
       <c r="G27" s="24">
-        <v>42923</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C28" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="28">
         <v>99</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="F28" s="24">
-        <v>42870</v>
+        <v>42877</v>
       </c>
       <c r="G28" s="24">
-        <v>42923</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3855,10 +3860,10 @@
         <v>99</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="F29" s="24">
-        <v>42919</v>
+        <v>42873</v>
       </c>
       <c r="G29" s="24">
         <v>42923</v>
@@ -3867,35 +3872,65 @@
     <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="str">
         <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C30" s="28">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28">
+        <v>99</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="24">
+        <v>42879</v>
+      </c>
+      <c r="G30" s="24">
+        <v>42923</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27" t="str">
         <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C31" s="28">
+        <v>2</v>
+      </c>
+      <c r="D31" s="28">
+        <v>99</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="24">
+        <v>42870</v>
+      </c>
+      <c r="G31" s="24">
+        <v>42923</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27" t="str">
         <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C32" s="28">
+        <v>2</v>
+      </c>
+      <c r="D32" s="28">
+        <v>99</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="24">
+        <v>42919</v>
+      </c>
+      <c r="G32" s="24">
+        <v>42923</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="str">
@@ -4496,7 +4531,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>3</v>
@@ -6167,1267 +6202,1267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -2290,7 +2290,7 @@
   <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,19 +2335,19 @@
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E3" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="24">
-        <v>42930</v>
+        <v>42932</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25" t="s">
@@ -2366,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E4" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -2383,16 +2383,16 @@
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="E5" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
@@ -2400,22 +2400,22 @@
         <v>62</v>
       </c>
       <c r="I5" s="33">
-        <v>42917</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C6" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -2429,16 +2429,16 @@
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="E7" s="22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -2458,10 +2458,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -2469,45 +2469,41 @@
         <v>62</v>
       </c>
       <c r="I8" s="33">
-        <v>42948</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Front - Web</v>
       </c>
       <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="22">
         <v>13</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="22">
-        <v>12</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="33">
-        <v>43009</v>
-      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -2517,21 +2513,27 @@
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="22">
-        <v>14</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="33"/>
+        <v>275</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="24">
+        <v>42930</v>
+      </c>
+      <c r="G11" s="24">
+        <v>42930</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="33">
+        <v>42917</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
@@ -3267,12 +3269,12 @@
     <hyperlink ref="H26" r:id="rId14"/>
     <hyperlink ref="H27" r:id="rId15"/>
     <hyperlink ref="H28" r:id="rId16"/>
-    <hyperlink ref="H6" r:id="rId17"/>
-    <hyperlink ref="H7" r:id="rId18"/>
+    <hyperlink ref="H5" r:id="rId17"/>
+    <hyperlink ref="H6" r:id="rId18"/>
     <hyperlink ref="H12" r:id="rId19"/>
-    <hyperlink ref="H3" r:id="rId20"/>
-    <hyperlink ref="H8" r:id="rId21"/>
-    <hyperlink ref="H9" r:id="rId22"/>
+    <hyperlink ref="H11" r:id="rId20"/>
+    <hyperlink ref="H7" r:id="rId21"/>
+    <hyperlink ref="H8" r:id="rId22"/>
     <hyperlink ref="H29" r:id="rId23"/>
     <hyperlink ref="H30" r:id="rId24"/>
     <hyperlink ref="H31" r:id="rId25"/>
@@ -3290,8 +3292,8 @@
     <hyperlink ref="H44" r:id="rId37"/>
     <hyperlink ref="H45" r:id="rId38"/>
     <hyperlink ref="H13" r:id="rId39"/>
-    <hyperlink ref="H4" r:id="rId40"/>
-    <hyperlink ref="H5" r:id="rId41"/>
+    <hyperlink ref="H3" r:id="rId40"/>
+    <hyperlink ref="H4" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="253">
   <si>
     <t>Seq.</t>
   </si>
@@ -232,15 +232,6 @@
     <t>Atividade</t>
   </si>
   <si>
-    <t>Marcar presença: ao adicionar pessoa, só acrescentar na grid, ou seja, não persiste nada. Reordena a grid com o nome adicionada sleecionado</t>
-  </si>
-  <si>
-    <t>Tabela Attendance: UNIQUE - atividade, pessoa, data</t>
-  </si>
-  <si>
-    <t>github: Proteger senhas, token dropbox</t>
-  </si>
-  <si>
     <t>Registro</t>
   </si>
   <si>
@@ -259,57 +250,6 @@
     <t>Migrar maio via App</t>
   </si>
   <si>
-    <t>Política de backup recorrente DB prod</t>
-  </si>
-  <si>
-    <t>Presença e pessoa: validação dos campos de data.</t>
-  </si>
-  <si>
-    <t>Presença: Campo de data: se null, coloca dia de hoje</t>
-  </si>
-  <si>
-    <t>Presença: onfocus da data, desabilita a grid, e habilita on blur focus</t>
-  </si>
-  <si>
-    <t>Presença: ao alterar a data, entra em modo read only</t>
-  </si>
-  <si>
-    <t>Presença: persistir user e timestamp da marcação</t>
-  </si>
-  <si>
-    <t>Deploy: push no GitHub (acrescentar linha)</t>
-  </si>
-  <si>
-    <t>Deploy: add linha: em que pontos atualizar versão.</t>
-  </si>
-  <si>
-    <t>WB: align campos data form preto</t>
-  </si>
-  <si>
-    <t>WB: cor dos elementos da grid no form preto: de cinza para preto</t>
-  </si>
-  <si>
-    <t>JP: application[-dev, -prod].properties</t>
-  </si>
-  <si>
-    <t>JP: Heroku sync GitHub</t>
-  </si>
-  <si>
-    <t>JP: Casos de test no processo de build e deploy</t>
-  </si>
-  <si>
-    <t>JP: Política backup DB</t>
-  </si>
-  <si>
-    <t>JP: Remover senhas do GitHub tirar rastos</t>
-  </si>
-  <si>
-    <t>JP: Remover senhas do GitHub tirar rastos: 1. arquivo a parte com propriedades lidas pelo application.properties Ex: ${senha}</t>
-  </si>
-  <si>
-    <t>JP: Remover senhas do GitHub tirar rastos: 2. ignorar o sync no GitHub desse arquivo</t>
-  </si>
-  <si>
     <t>Ano</t>
   </si>
   <si>
@@ -325,12 +265,6 @@
     <t>Usuário para segmentar por Centro: permite Sand Box</t>
   </si>
   <si>
-    <t>shortName em itálico, nome (u) ou (c) NEW</t>
-  </si>
-  <si>
-    <t>Presenças para atividades com título</t>
-  </si>
-  <si>
     <t>Tableau - Zoho Reports</t>
   </si>
   <si>
@@ -661,12 +595,6 @@
     <t>from person p;</t>
   </si>
   <si>
-    <t>Desp: listar últimos 60 dias</t>
-  </si>
-  <si>
-    <t>Mensagens confimação e info referente a Folha 15</t>
-  </si>
-  <si>
     <t xml:space="preserve">       ,if(a.name_complement = 'sr', 1, 0) sr</t>
   </si>
   <si>
@@ -832,12 +760,6 @@
     <t>Nr.</t>
   </si>
   <si>
-    <t>Marcar presença: Editar nome diretamente na lista. Considerar STATUS person, old_name separados por vírgula</t>
-  </si>
-  <si>
-    <t>config: em produção, jpa não muda a estrutura do banco DDL</t>
-  </si>
-  <si>
     <t>Nova versão: Backlog</t>
   </si>
   <si>
@@ -860,6 +782,15 @@
   </si>
   <si>
     <t>Autorização</t>
+  </si>
+  <si>
+    <t>Integração contínua: JP</t>
+  </si>
+  <si>
+    <t>WB: Painel lateral direita deslizar</t>
+  </si>
+  <si>
+    <t>WB: Economizar espaço nas bordas ao marcar presença no tamanho celular</t>
   </si>
 </sst>
 </file>
@@ -962,7 +893,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1061,13 +992,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -2142,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D14" s="22"/>
     </row>
@@ -2287,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2241,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>58</v>
@@ -2341,13 +2265,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E3" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="24">
-        <v>42932</v>
+        <v>42936</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25" t="s">
@@ -2358,18 +2282,15 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="str">
-        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E4" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -2377,7 +2298,7 @@
         <v>62</v>
       </c>
       <c r="I4" s="33">
-        <v>42917</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2356,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E7" s="22">
         <v>11</v>
@@ -2458,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E8" s="22">
         <v>12</v>
@@ -2481,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E9" s="22">
         <v>13</v>
@@ -2500,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E10" s="22">
         <v>14</v>
@@ -2513,20 +2434,20 @@
     <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="24">
-        <v>42930</v>
+        <v>42932</v>
       </c>
       <c r="G11" s="24">
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>62</v>
@@ -2544,14 +2465,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="24">
-        <v>42927</v>
+        <v>42930</v>
       </c>
       <c r="G12" s="24">
-        <v>42928</v>
+        <v>42930</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>62</v>
@@ -2569,19 +2490,21 @@
         <v>2</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="24">
-        <v>42916</v>
+        <v>42927</v>
       </c>
       <c r="G13" s="24">
-        <v>42923</v>
+        <v>42928</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="33">
+        <v>42917</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="str">
@@ -2592,14 +2515,14 @@
         <v>2</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="24">
-        <v>42845</v>
+        <v>42916</v>
       </c>
       <c r="G14" s="24">
-        <v>42853</v>
+        <v>42923</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>62</v>
@@ -2609,20 +2532,20 @@
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24">
-        <v>42856</v>
+        <v>42845</v>
       </c>
       <c r="G15" s="24">
-        <v>42867</v>
+        <v>42853</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>62</v>
@@ -2632,20 +2555,20 @@
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="24">
-        <v>42869</v>
+        <v>42856</v>
       </c>
       <c r="G16" s="24">
-        <v>42870</v>
+        <v>42867</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>62</v>
@@ -2655,17 +2578,17 @@
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="24">
-        <v>42870</v>
+        <v>42869</v>
       </c>
       <c r="G17" s="24">
         <v>42870</v>
@@ -2678,20 +2601,20 @@
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="24">
         <v>42870</v>
       </c>
       <c r="G18" s="24">
-        <v>42872</v>
+        <v>42870</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>62</v>
@@ -2701,20 +2624,20 @@
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="24">
-        <v>42875</v>
+        <v>42870</v>
       </c>
       <c r="G19" s="24">
-        <v>42875</v>
+        <v>42872</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>62</v>
@@ -2724,20 +2647,20 @@
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="24">
-        <v>42887</v>
+        <v>42875</v>
       </c>
       <c r="G20" s="24">
-        <v>42887</v>
+        <v>42875</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>62</v>
@@ -2747,20 +2670,20 @@
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="24">
         <v>42887</v>
       </c>
       <c r="G21" s="24">
-        <v>42893</v>
+        <v>42887</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>62</v>
@@ -2770,10 +2693,10 @@
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>74</v>
@@ -2793,20 +2716,20 @@
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="24">
-        <v>42894</v>
+        <v>42887</v>
       </c>
       <c r="G23" s="24">
-        <v>42912</v>
+        <v>42893</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>62</v>
@@ -2822,14 +2745,14 @@
         <v>9</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="24">
         <v>42894</v>
       </c>
       <c r="G24" s="24">
-        <v>42916</v>
+        <v>42912</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>62</v>
@@ -2839,17 +2762,21 @@
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G25" s="24">
+        <v>42916</v>
+      </c>
       <c r="H25" s="25" t="s">
         <v>62</v>
       </c>
@@ -2858,13 +2785,13 @@
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="24"/>
@@ -2877,13 +2804,13 @@
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="str">
         <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C27" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="24"/>
@@ -2902,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="24"/>
@@ -2915,13 +2842,13 @@
     <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="str">
         <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="24"/>
@@ -2940,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="24"/>
@@ -2959,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="24"/>
@@ -2978,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="24"/>
@@ -2997,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="24"/>
@@ -3016,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="24"/>
@@ -3035,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="24"/>
@@ -3054,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="24"/>
@@ -3073,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="24"/>
@@ -3092,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="24"/>
@@ -3111,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="24"/>
@@ -3130,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="24"/>
@@ -3149,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="24"/>
@@ -3168,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="24"/>
@@ -3187,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="24"/>
@@ -3200,13 +3127,13 @@
     <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="str">
         <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C44" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="24"/>
@@ -3219,13 +3146,13 @@
     <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="str">
         <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C45" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="24"/>
@@ -3235,13 +3162,32 @@
       </c>
       <c r="I45" s="33"/>
     </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="str">
+        <f>IF(C46="","",VLOOKUP(C46,Módulos!B:C,2,FALSE))</f>
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="33"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:I2">
-    <sortState ref="B3:I45">
+    <sortState ref="B3:I46">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E3:E45">
+  <conditionalFormatting sqref="E3:E46">
     <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3253,59 +3199,60 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1"/>
-    <hyperlink ref="H15" r:id="rId2"/>
-    <hyperlink ref="H16" r:id="rId3"/>
-    <hyperlink ref="H18" r:id="rId4"/>
-    <hyperlink ref="H17" r:id="rId5"/>
-    <hyperlink ref="H21" r:id="rId6"/>
-    <hyperlink ref="H23" r:id="rId7"/>
-    <hyperlink ref="H22" r:id="rId8"/>
-    <hyperlink ref="H20" r:id="rId9"/>
-    <hyperlink ref="H19" r:id="rId10"/>
-    <hyperlink ref="H38" r:id="rId11"/>
-    <hyperlink ref="H24" r:id="rId12"/>
-    <hyperlink ref="H25" r:id="rId13"/>
-    <hyperlink ref="H26" r:id="rId14"/>
-    <hyperlink ref="H27" r:id="rId15"/>
-    <hyperlink ref="H28" r:id="rId16"/>
+    <hyperlink ref="H15" r:id="rId1"/>
+    <hyperlink ref="H16" r:id="rId2"/>
+    <hyperlink ref="H17" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H18" r:id="rId5"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H24" r:id="rId7"/>
+    <hyperlink ref="H23" r:id="rId8"/>
+    <hyperlink ref="H21" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="H39" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H26" r:id="rId13"/>
+    <hyperlink ref="H27" r:id="rId14"/>
+    <hyperlink ref="H28" r:id="rId15"/>
+    <hyperlink ref="H29" r:id="rId16"/>
     <hyperlink ref="H5" r:id="rId17"/>
     <hyperlink ref="H6" r:id="rId18"/>
-    <hyperlink ref="H12" r:id="rId19"/>
-    <hyperlink ref="H11" r:id="rId20"/>
+    <hyperlink ref="H13" r:id="rId19"/>
+    <hyperlink ref="H12" r:id="rId20"/>
     <hyperlink ref="H7" r:id="rId21"/>
     <hyperlink ref="H8" r:id="rId22"/>
-    <hyperlink ref="H29" r:id="rId23"/>
-    <hyperlink ref="H30" r:id="rId24"/>
-    <hyperlink ref="H31" r:id="rId25"/>
-    <hyperlink ref="H32" r:id="rId26"/>
-    <hyperlink ref="H33" r:id="rId27"/>
-    <hyperlink ref="H34" r:id="rId28"/>
-    <hyperlink ref="H35" r:id="rId29"/>
-    <hyperlink ref="H36" r:id="rId30"/>
-    <hyperlink ref="H37" r:id="rId31"/>
-    <hyperlink ref="H39" r:id="rId32"/>
-    <hyperlink ref="H40" r:id="rId33"/>
-    <hyperlink ref="H41" r:id="rId34"/>
-    <hyperlink ref="H42" r:id="rId35"/>
-    <hyperlink ref="H43" r:id="rId36"/>
-    <hyperlink ref="H44" r:id="rId37"/>
-    <hyperlink ref="H45" r:id="rId38"/>
-    <hyperlink ref="H13" r:id="rId39"/>
-    <hyperlink ref="H3" r:id="rId40"/>
-    <hyperlink ref="H4" r:id="rId41"/>
+    <hyperlink ref="H30" r:id="rId23"/>
+    <hyperlink ref="H31" r:id="rId24"/>
+    <hyperlink ref="H32" r:id="rId25"/>
+    <hyperlink ref="H33" r:id="rId26"/>
+    <hyperlink ref="H34" r:id="rId27"/>
+    <hyperlink ref="H35" r:id="rId28"/>
+    <hyperlink ref="H36" r:id="rId29"/>
+    <hyperlink ref="H37" r:id="rId30"/>
+    <hyperlink ref="H38" r:id="rId31"/>
+    <hyperlink ref="H40" r:id="rId32"/>
+    <hyperlink ref="H41" r:id="rId33"/>
+    <hyperlink ref="H42" r:id="rId34"/>
+    <hyperlink ref="H43" r:id="rId35"/>
+    <hyperlink ref="H44" r:id="rId36"/>
+    <hyperlink ref="H45" r:id="rId37"/>
+    <hyperlink ref="H46" r:id="rId38"/>
+    <hyperlink ref="H14" r:id="rId39"/>
+    <hyperlink ref="H11" r:id="rId40"/>
+    <hyperlink ref="H3" r:id="rId41"/>
+    <hyperlink ref="H4" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G83"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3325,16 +3272,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>57</v>
@@ -3349,10 +3296,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F3" s="24">
         <v>42928</v>
@@ -3362,1146 +3309,215 @@
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C4" s="28"/>
+        <v>Front - Web</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
       <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F4" s="24">
-        <v>42927</v>
+        <v>42933</v>
       </c>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C5" s="28"/>
+        <v>Front - Web</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3</v>
+      </c>
       <c r="D5" s="28">
         <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F5" s="24">
-        <v>42927</v>
+        <v>42933</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C6" s="28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F6" s="24">
-        <v>42921</v>
+        <v>42927</v>
       </c>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C7" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F7" s="24">
-        <v>42852</v>
+        <v>42927</v>
       </c>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C8" s="28">
+        <v>9</v>
+      </c>
+      <c r="D8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="28">
-        <v>3</v>
-      </c>
       <c r="E8" s="29" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="F8" s="24">
-        <v>42873</v>
+        <v>42921</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2</v>
-      </c>
-      <c r="D9" s="28">
-        <v>3</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28">
-        <v>4</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="24">
-        <v>42852</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C11" s="28">
-        <v>2</v>
-      </c>
-      <c r="D11" s="28">
-        <v>4</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C12" s="28">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28">
-        <v>4</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C13" s="28">
-        <v>2</v>
-      </c>
-      <c r="D13" s="28">
-        <v>4</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C14" s="28">
-        <v>2</v>
-      </c>
-      <c r="D14" s="28">
-        <v>4</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C15" s="28">
-        <v>2</v>
-      </c>
-      <c r="D15" s="28">
-        <v>4</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C16" s="28">
-        <v>2</v>
-      </c>
-      <c r="D16" s="28">
-        <v>4</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C17" s="28">
-        <v>2</v>
-      </c>
-      <c r="D17" s="28">
-        <v>4</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28">
-        <v>6</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="24">
-        <v>42873</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C19" s="28">
-        <v>2</v>
-      </c>
-      <c r="D19" s="28">
-        <v>99</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="24">
-        <v>42852</v>
-      </c>
-      <c r="G19" s="24">
-        <v>42867</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="str">
-        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C20" s="28">
-        <v>3</v>
-      </c>
-      <c r="D20" s="28">
-        <v>99</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G20" s="24">
-        <v>42873</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="str">
-        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C21" s="28">
-        <v>3</v>
-      </c>
-      <c r="D21" s="28">
-        <v>99</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G21" s="24">
-        <v>42873</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="str">
-        <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C22" s="28">
-        <v>1</v>
-      </c>
-      <c r="D22" s="28">
-        <v>99</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="24">
-        <v>42852</v>
-      </c>
-      <c r="G22" s="24">
-        <v>42875</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="str">
-        <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C23" s="28">
-        <v>3</v>
-      </c>
-      <c r="D23" s="28">
-        <v>99</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="24">
-        <v>42852</v>
-      </c>
-      <c r="G23" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="str">
-        <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C24" s="28">
-        <v>3</v>
-      </c>
-      <c r="D24" s="28">
-        <v>99</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G24" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="str">
-        <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C25" s="28">
-        <v>3</v>
-      </c>
-      <c r="D25" s="28">
-        <v>99</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G25" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="str">
-        <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C26" s="28">
-        <v>3</v>
-      </c>
-      <c r="D26" s="28">
-        <v>99</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G26" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="str">
-        <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C27" s="28">
-        <v>3</v>
-      </c>
-      <c r="D27" s="28">
-        <v>99</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G27" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="str">
-        <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C28" s="28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="28">
-        <v>99</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="24">
-        <v>42877</v>
-      </c>
-      <c r="G28" s="24">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="str">
-        <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C29" s="28">
-        <v>2</v>
-      </c>
-      <c r="D29" s="28">
-        <v>99</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="24">
-        <v>42873</v>
-      </c>
-      <c r="G29" s="24">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="str">
-        <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C30" s="28">
-        <v>2</v>
-      </c>
-      <c r="D30" s="28">
-        <v>99</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="24">
-        <v>42879</v>
-      </c>
-      <c r="G30" s="24">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="str">
-        <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C31" s="28">
-        <v>2</v>
-      </c>
-      <c r="D31" s="28">
-        <v>99</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="24">
-        <v>42870</v>
-      </c>
-      <c r="G31" s="24">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="str">
-        <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C32" s="28">
-        <v>2</v>
-      </c>
-      <c r="D32" s="28">
-        <v>99</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="24">
-        <v>42919</v>
-      </c>
-      <c r="G32" s="24">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="str">
-        <f>IF(C33="","",VLOOKUP(C33,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="str">
-        <f>IF(C34="","",VLOOKUP(C34,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="str">
-        <f>IF(C35="","",VLOOKUP(C35,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="str">
-        <f>IF(C36="","",VLOOKUP(C36,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="str">
-        <f>IF(C37="","",VLOOKUP(C37,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="str">
-        <f>IF(C38="","",VLOOKUP(C38,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="str">
-        <f>IF(C39="","",VLOOKUP(C39,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="str">
-        <f>IF(C40="","",VLOOKUP(C40,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="str">
-        <f>IF(C41="","",VLOOKUP(C41,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="str">
-        <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="str">
-        <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="str">
-        <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="str">
-        <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="str">
-        <f>IF(C46="","",VLOOKUP(C46,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="str">
-        <f>IF(C47="","",VLOOKUP(C47,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="str">
-        <f>IF(C48="","",VLOOKUP(C48,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="str">
-        <f>IF(C49="","",VLOOKUP(C49,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="str">
-        <f>IF(C50="","",VLOOKUP(C50,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="str">
-        <f>IF(C51="","",VLOOKUP(C51,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="str">
-        <f>IF(C52="","",VLOOKUP(C52,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="str">
-        <f>IF(C53="","",VLOOKUP(C53,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="str">
-        <f>IF(C54="","",VLOOKUP(C54,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="str">
-        <f>IF(C55="","",VLOOKUP(C55,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="str">
-        <f>IF(C56="","",VLOOKUP(C56,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="27" t="str">
-        <f>IF(C57="","",VLOOKUP(C57,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="str">
-        <f>IF(C58="","",VLOOKUP(C58,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="27" t="str">
-        <f>IF(C59="","",VLOOKUP(C59,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27" t="str">
-        <f>IF(C60="","",VLOOKUP(C60,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="27" t="str">
-        <f>IF(C61="","",VLOOKUP(C61,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="str">
-        <f>IF(C62="","",VLOOKUP(C62,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="str">
-        <f>IF(C63="","",VLOOKUP(C63,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="27" t="str">
-        <f>IF(C64="","",VLOOKUP(C64,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="str">
-        <f>IF(C65="","",VLOOKUP(C65,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="27" t="str">
-        <f>IF(C66="","",VLOOKUP(C66,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-    </row>
-    <row r="67" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="str">
-        <f>IF(C67="","",VLOOKUP(C67,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="str">
-        <f>IF(C68="","",VLOOKUP(C68,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="27" t="str">
-        <f>IF(C69="","",VLOOKUP(C69,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27" t="str">
-        <f>IF(C70="","",VLOOKUP(C70,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="27" t="str">
-        <f>IF(C71="","",VLOOKUP(C71,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="27" t="str">
-        <f>IF(C72="","",VLOOKUP(C72,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="str">
-        <f>IF(C73="","",VLOOKUP(C73,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="27" t="str">
-        <f>IF(C74="","",VLOOKUP(C74,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="75" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="27" t="str">
-        <f>IF(C75="","",VLOOKUP(C75,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-    </row>
-    <row r="76" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="27" t="str">
-        <f>IF(C76="","",VLOOKUP(C76,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-    </row>
-    <row r="77" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="str">
-        <f>IF(C77="","",VLOOKUP(C77,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="27" t="str">
-        <f>IF(C78="","",VLOOKUP(C78,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="str">
-        <f>IF(C79="","",VLOOKUP(C79,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-    </row>
-    <row r="80" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="27" t="str">
-        <f>IF(C80="","",VLOOKUP(C80,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="str">
-        <f>IF(C81="","",VLOOKUP(C81,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-    </row>
-    <row r="82" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="str">
-        <f>IF(C82="","",VLOOKUP(C82,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-    </row>
-    <row r="83" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="27" t="str">
-        <f>IF(C83="","",VLOOKUP(C83,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G2">
-    <sortState ref="B3:G83">
+    <sortState ref="B3:G18">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F3:G83">
+  <conditionalFormatting sqref="F3:G18">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -4533,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>3</v>
@@ -6204,1267 +5220,1267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="SQL Views" sheetId="22" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$I$2</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="253">
   <si>
     <t>Seq.</t>
   </si>
@@ -775,9 +775,6 @@
     <t>CRUD: Sharing</t>
   </si>
   <si>
-    <t>WB: Seção do usuário no menu: responsividade, username, combo (tamanho)</t>
-  </si>
-  <si>
     <t>CRUD: User + Autenticação (hashPassword...)</t>
   </si>
   <si>
@@ -791,6 +788,9 @@
   </si>
   <si>
     <t>WB: Economizar espaço nas bordas ao marcar presença no tamanho celular</t>
+  </si>
+  <si>
+    <t>WB: Posicionar login no canto superio direito</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="22">
         <v>5</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="22">
         <v>6</v>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="24">
@@ -3249,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,11 +3263,10 @@
     <col min="4" max="4" width="5.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="109.625" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="26"/>
+    <col min="7" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -3283,11 +3282,8 @@
       <c r="F2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -3296,17 +3292,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F3" s="24">
-        <v>42928</v>
-      </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -3318,14 +3313,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="24">
         <v>42933</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -3337,14 +3331,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="24">
         <v>42933</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -3361,9 +3354,8 @@
       <c r="F6" s="24">
         <v>42927</v>
       </c>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -3380,9 +3372,8 @@
       <c r="F7" s="24">
         <v>42927</v>
       </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
         <v>Tableau - Zoho Reports</v>
@@ -3399,9 +3390,8 @@
       <c r="F8" s="24">
         <v>42921</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3410,9 +3400,8 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3421,9 +3410,8 @@
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3432,9 +3420,8 @@
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3443,9 +3430,8 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3454,9 +3440,8 @@
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3465,9 +3450,8 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3476,9 +3460,8 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3487,9 +3470,8 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3498,9 +3480,8 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
         <v/>
@@ -3509,15 +3490,14 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G2">
-    <sortState ref="B3:G18">
+  <autoFilter ref="B2:F2">
+    <sortState ref="B3:F18">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F3:G18">
+  <conditionalFormatting sqref="F3:F18">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="256">
   <si>
     <t>Seq.</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Ficha de cadastro papel (pág. 12)</t>
   </si>
   <si>
-    <t>Período</t>
-  </si>
-  <si>
     <t>Marcar presenças</t>
   </si>
   <si>
@@ -791,6 +788,18 @@
   </si>
   <si>
     <t>WB: Posicionar login no canto superio direito</t>
+  </si>
+  <si>
+    <t>Resumo sr para Front Vaadin</t>
+  </si>
+  <si>
+    <t>Exportar dados vw por Centro no Front Vaadin</t>
+  </si>
+  <si>
+    <t>Mesclar nomes</t>
+  </si>
+  <si>
+    <t>WB: Formato da tela de login (zuado no celular)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -988,9 +997,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2066,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22"/>
     </row>
@@ -2211,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,11 +2232,10 @@
     <col min="5" max="5" width="10.875" style="21" customWidth="1"/>
     <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="34.75" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="21"/>
+    <col min="9" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
@@ -2241,22 +2246,19 @@
         <v>44</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -2265,135 +2267,120 @@
         <v>3</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="24">
-        <v>42936</v>
+        <v>42948</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="33">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="str">
+        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="33">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Front - Web</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="E5" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="33">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="33">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E7" s="22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="33">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C8" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="E8" s="22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="33">
-        <v>43009</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -2402,134 +2389,116 @@
         <v>3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="E9" s="22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E10" s="22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24">
-        <v>42932</v>
-      </c>
-      <c r="G11" s="24">
-        <v>42935</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="33">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24">
-        <v>42930</v>
-      </c>
-      <c r="G12" s="24">
-        <v>42930</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="33">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E12" s="22">
+        <v>10</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>DB</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24">
-        <v>42927</v>
-      </c>
-      <c r="G13" s="24">
-        <v>42928</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="33">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E13" s="22">
+        <v>11</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="24">
-        <v>42916</v>
+        <v>42932</v>
       </c>
       <c r="G14" s="24">
-        <v>42923</v>
+        <v>42935</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
@@ -2538,44 +2507,42 @@
         <v>2</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="24">
-        <v>42845</v>
+        <v>42930</v>
       </c>
       <c r="G15" s="24">
-        <v>42853</v>
+        <v>42930</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="24">
-        <v>42856</v>
+        <v>42927</v>
       </c>
       <c r="G16" s="24">
-        <v>42867</v>
+        <v>42928</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
@@ -2584,90 +2551,86 @@
         <v>2</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="24">
-        <v>42869</v>
+        <v>42916</v>
       </c>
       <c r="G17" s="24">
-        <v>42870</v>
+        <v>42923</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="24">
-        <v>42870</v>
+        <v>42845</v>
       </c>
       <c r="G18" s="24">
-        <v>42870</v>
+        <v>42853</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="24">
-        <v>42870</v>
+        <v>42856</v>
       </c>
       <c r="G19" s="24">
-        <v>42872</v>
+        <v>42867</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="24">
-        <v>42875</v>
+        <v>42869</v>
       </c>
       <c r="G20" s="24">
-        <v>42875</v>
+        <v>42870</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
@@ -2676,151 +2639,152 @@
         <v>3</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="24">
-        <v>42887</v>
+        <v>42870</v>
       </c>
       <c r="G21" s="24">
-        <v>42887</v>
+        <v>42870</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="24">
-        <v>42887</v>
+        <v>42870</v>
       </c>
       <c r="G22" s="24">
-        <v>42893</v>
+        <v>42872</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="24">
-        <v>42887</v>
+        <v>42875</v>
       </c>
       <c r="G23" s="24">
-        <v>42893</v>
+        <v>42875</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C24" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="24">
-        <v>42894</v>
+        <v>42887</v>
       </c>
       <c r="G24" s="24">
-        <v>42912</v>
+        <v>42887</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>DB</v>
       </c>
       <c r="C25" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="24">
-        <v>42894</v>
+        <v>42887</v>
       </c>
       <c r="G25" s="24">
-        <v>42916</v>
+        <v>42893</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="24">
+        <v>42887</v>
+      </c>
+      <c r="G26" s="24">
+        <v>42893</v>
+      </c>
       <c r="H26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="str">
         <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E27" s="22"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G27" s="24">
+        <v>42912</v>
+      </c>
       <c r="H27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
         <v>Tableau - Zoho Reports</v>
@@ -2829,93 +2793,92 @@
         <v>9</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E28" s="22"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="24">
+        <v>42894</v>
+      </c>
+      <c r="G28" s="24">
+        <v>42916</v>
+      </c>
       <c r="H28" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="str">
         <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>DB</v>
       </c>
       <c r="C29" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="str">
         <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="str">
         <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="str">
         <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="str">
         <f>IF(C33="","",VLOOKUP(C33,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -2924,17 +2887,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
         <f>IF(C34="","",VLOOKUP(C34,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -2943,17 +2905,16 @@
         <v>1</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="str">
         <f>IF(C35="","",VLOOKUP(C35,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -2962,17 +2923,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="str">
         <f>IF(C36="","",VLOOKUP(C36,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -2981,17 +2941,16 @@
         <v>1</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="str">
         <f>IF(C37="","",VLOOKUP(C37,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3000,17 +2959,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="str">
         <f>IF(C38="","",VLOOKUP(C38,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3019,17 +2977,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="str">
         <f>IF(C39="","",VLOOKUP(C39,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3038,17 +2995,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="str">
         <f>IF(C40="","",VLOOKUP(C40,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3057,17 +3013,16 @@
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="str">
         <f>IF(C41="","",VLOOKUP(C41,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3076,17 +3031,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="str">
         <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3095,17 +3049,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="str">
         <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3114,17 +3067,16 @@
         <v>1</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="str">
         <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
@@ -3133,61 +3085,112 @@
         <v>1</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="str">
         <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>DB</v>
       </c>
       <c r="C45" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="str">
         <f>IF(C46="","",VLOOKUP(C46,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
+        <v>DB</v>
       </c>
       <c r="C46" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="33"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="str">
+        <f>IF(C47="","",VLOOKUP(C47,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="str">
+        <f>IF(C48="","",VLOOKUP(C48,Módulos!B:C,2,FALSE))</f>
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C48" s="2">
+        <v>12</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="str">
+        <f>IF(C49="","",VLOOKUP(C49,Módulos!B:C,2,FALSE))</f>
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2">
-    <sortState ref="B3:I46">
+  <autoFilter ref="B2:H2">
+    <sortState ref="B3:H49">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E3:E46">
+  <conditionalFormatting sqref="E3:E49">
     <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3199,51 +3202,54 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H17" r:id="rId3"/>
-    <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H18" r:id="rId5"/>
-    <hyperlink ref="H22" r:id="rId6"/>
-    <hyperlink ref="H24" r:id="rId7"/>
-    <hyperlink ref="H23" r:id="rId8"/>
-    <hyperlink ref="H21" r:id="rId9"/>
-    <hyperlink ref="H20" r:id="rId10"/>
-    <hyperlink ref="H39" r:id="rId11"/>
-    <hyperlink ref="H25" r:id="rId12"/>
-    <hyperlink ref="H26" r:id="rId13"/>
-    <hyperlink ref="H27" r:id="rId14"/>
-    <hyperlink ref="H28" r:id="rId15"/>
-    <hyperlink ref="H29" r:id="rId16"/>
-    <hyperlink ref="H5" r:id="rId17"/>
-    <hyperlink ref="H6" r:id="rId18"/>
-    <hyperlink ref="H13" r:id="rId19"/>
-    <hyperlink ref="H12" r:id="rId20"/>
-    <hyperlink ref="H7" r:id="rId21"/>
-    <hyperlink ref="H8" r:id="rId22"/>
-    <hyperlink ref="H30" r:id="rId23"/>
-    <hyperlink ref="H31" r:id="rId24"/>
-    <hyperlink ref="H32" r:id="rId25"/>
-    <hyperlink ref="H33" r:id="rId26"/>
-    <hyperlink ref="H34" r:id="rId27"/>
-    <hyperlink ref="H35" r:id="rId28"/>
-    <hyperlink ref="H36" r:id="rId29"/>
-    <hyperlink ref="H37" r:id="rId30"/>
-    <hyperlink ref="H38" r:id="rId31"/>
-    <hyperlink ref="H40" r:id="rId32"/>
-    <hyperlink ref="H41" r:id="rId33"/>
-    <hyperlink ref="H42" r:id="rId34"/>
-    <hyperlink ref="H43" r:id="rId35"/>
-    <hyperlink ref="H44" r:id="rId36"/>
-    <hyperlink ref="H45" r:id="rId37"/>
-    <hyperlink ref="H46" r:id="rId38"/>
-    <hyperlink ref="H14" r:id="rId39"/>
-    <hyperlink ref="H11" r:id="rId40"/>
+    <hyperlink ref="H18" r:id="rId1"/>
+    <hyperlink ref="H19" r:id="rId2"/>
+    <hyperlink ref="H20" r:id="rId3"/>
+    <hyperlink ref="H22" r:id="rId4"/>
+    <hyperlink ref="H21" r:id="rId5"/>
+    <hyperlink ref="H25" r:id="rId6"/>
+    <hyperlink ref="H27" r:id="rId7"/>
+    <hyperlink ref="H26" r:id="rId8"/>
+    <hyperlink ref="H24" r:id="rId9"/>
+    <hyperlink ref="H23" r:id="rId10"/>
+    <hyperlink ref="H42" r:id="rId11"/>
+    <hyperlink ref="H28" r:id="rId12"/>
+    <hyperlink ref="H29" r:id="rId13"/>
+    <hyperlink ref="H30" r:id="rId14"/>
+    <hyperlink ref="H31" r:id="rId15"/>
+    <hyperlink ref="H32" r:id="rId16"/>
+    <hyperlink ref="H6" r:id="rId17"/>
+    <hyperlink ref="H7" r:id="rId18"/>
+    <hyperlink ref="H16" r:id="rId19"/>
+    <hyperlink ref="H15" r:id="rId20"/>
+    <hyperlink ref="H10" r:id="rId21"/>
+    <hyperlink ref="H11" r:id="rId22"/>
+    <hyperlink ref="H33" r:id="rId23"/>
+    <hyperlink ref="H34" r:id="rId24"/>
+    <hyperlink ref="H35" r:id="rId25"/>
+    <hyperlink ref="H36" r:id="rId26"/>
+    <hyperlink ref="H37" r:id="rId27"/>
+    <hyperlink ref="H38" r:id="rId28"/>
+    <hyperlink ref="H39" r:id="rId29"/>
+    <hyperlink ref="H40" r:id="rId30"/>
+    <hyperlink ref="H41" r:id="rId31"/>
+    <hyperlink ref="H43" r:id="rId32"/>
+    <hyperlink ref="H44" r:id="rId33"/>
+    <hyperlink ref="H45" r:id="rId34"/>
+    <hyperlink ref="H46" r:id="rId35"/>
+    <hyperlink ref="H47" r:id="rId36"/>
+    <hyperlink ref="H48" r:id="rId37"/>
+    <hyperlink ref="H49" r:id="rId38"/>
+    <hyperlink ref="H17" r:id="rId39"/>
+    <hyperlink ref="H14" r:id="rId40"/>
     <hyperlink ref="H3" r:id="rId41"/>
     <hyperlink ref="H4" r:id="rId42"/>
+    <hyperlink ref="H5" r:id="rId43"/>
+    <hyperlink ref="H8" r:id="rId44"/>
+    <hyperlink ref="H9" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -3251,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,16 +3277,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3292,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F3" s="24">
-        <v>42936</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3313,10 +3319,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F4" s="24">
-        <v>42933</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3331,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F5" s="24">
         <v>42933</v>
@@ -3349,10 +3355,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F6" s="24">
-        <v>42927</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F7" s="24">
         <v>42927</v>
@@ -3376,30 +3382,38 @@
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C8" s="28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F8" s="24">
-        <v>42921</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="24"/>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C9" s="28">
+        <v>9</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="24">
+        <v>42921</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="str">
@@ -3529,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>3</v>
@@ -5200,1267 +5214,1267 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551EADE-E9D4-4BD0-91BA-1CACDE0B9E5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
@@ -17,20 +18,23 @@
     <sheet name="Backlog" sheetId="20" r:id="rId3"/>
     <sheet name="Migração v2" sheetId="21" r:id="rId4"/>
     <sheet name="Migração v1" sheetId="16" r:id="rId5"/>
-    <sheet name="SQL Views" sheetId="22" r:id="rId6"/>
+    <sheet name="vw" sheetId="22" r:id="rId6"/>
+    <sheet name="vw_1" sheetId="24" r:id="rId7"/>
+    <sheet name="Check User" sheetId="26" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Check User'!$A$1:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
   <si>
     <t>Seq.</t>
   </si>
@@ -412,12 +416,6 @@
     <t>where    labor = 'sr'</t>
   </si>
   <si>
-    <t>Clube: Resumo</t>
-  </si>
-  <si>
-    <t>Clube: Viabilidade e pasar a usar</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -- vw_resumo_mensal_avg</t>
   </si>
   <si>
@@ -592,39 +590,6 @@
     <t>from person p;</t>
   </si>
   <si>
-    <t xml:space="preserve">       ,if(a.name_complement = 'sr', 1, 0) sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.name_complement = 'sg', 1, 0) sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 1, 1, 0) sr_direcao_espiritual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 2, 1, 0) sr_meditacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 3, 1, 0) sr_recolhimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 4, 1, 0) sr_curso_basico_doutrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 5, 1, 0) sr_catequese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id in (6,10,11), 1, 0) sr_circulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 7, 1, 0) sr_retiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 8, 1, 0) sr_convivio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(a.id = 9, 1, 0) sr_vpv</t>
-  </si>
-  <si>
     <t xml:space="preserve">       ,if(p.check_colegial = 1, '1','0') check_colegial</t>
   </si>
   <si>
@@ -688,15 +653,6 @@
     <t xml:space="preserve">       ,p.center_id</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- vw_person_count</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_person_count;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_person_count as</t>
-  </si>
-  <si>
     <t>-- **************************</t>
   </si>
   <si>
@@ -787,26 +743,269 @@
     <t>WB: Economizar espaço nas bordas ao marcar presença no tamanho celular</t>
   </si>
   <si>
-    <t>WB: Posicionar login no canto superio direito</t>
-  </si>
-  <si>
-    <t>Resumo sr para Front Vaadin</t>
-  </si>
-  <si>
-    <t>Exportar dados vw por Centro no Front Vaadin</t>
-  </si>
-  <si>
-    <t>Mesclar nomes</t>
-  </si>
-  <si>
     <t>WB: Formato da tela de login (zuado no celular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_1_attendance</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_1_attendance;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_1_attendance as</t>
+  </si>
+  <si>
+    <t>select  v.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_name_complement = 'sr', 1, 0) sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_name_complement = 'sg', 1, 0) sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 1, 1, 0) sr_direcao_espiritual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 2, 1, 0) sr_meditacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 3, 1, 0) sr_recolhimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 4, 1, 0) sr_curso_basico_doutrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 5, 1, 0) sr_catequese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id in (6,10,11), 1, 0) sr_circulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 7, 1, 0) sr_retiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 8, 1, 0) sr_convivio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,if(activity_id = 9, 1, 0) sr_vpv</t>
+  </si>
+  <si>
+    <t>from vw_attendance as v</t>
+  </si>
+  <si>
+    <t>where v.center_id = 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -- vw_1_resumo_sr</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_1_resumo_sr;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_1_resumo_sr as</t>
+  </si>
+  <si>
+    <t>select * from vw_resumo_sr</t>
+  </si>
+  <si>
+    <t>where center_id in ('center_id', '1');</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_1_person</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_1_person;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_1_person as</t>
+  </si>
+  <si>
+    <t>select  p.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- vw_1_person_count</t>
+  </si>
+  <si>
+    <t>DROP view IF EXISTS vw_1_person_count;</t>
+  </si>
+  <si>
+    <t>CREATE view vw_1_person_count as</t>
+  </si>
+  <si>
+    <t>from vw_person p</t>
+  </si>
+  <si>
+    <t>where center_id = 1;</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Criar a view: vw_&lt;id-do-centro&gt;_attendance</t>
+  </si>
+  <si>
+    <t>Criar usuário no Mysql: attendance_&lt;id-do-centro&gt;</t>
+  </si>
+  <si>
+    <t>Criar a view: vw_&lt;id-do-centro&gt;_person</t>
+  </si>
+  <si>
+    <t>Criar a view: vw_&lt;id-do-centro&gt;_resumo_sr</t>
+  </si>
+  <si>
+    <t>Criar aba vw_&lt;id-do-centro&gt; com os scripts de criação das views</t>
+  </si>
+  <si>
+    <t>Conceder select na tabela sharing para o user criado</t>
+  </si>
+  <si>
+    <t>Conceder select nas views criadas para o user criado</t>
+  </si>
+  <si>
+    <t>Providenciar e-mail (institucional do Centro) a ser usado no Zoho Reports</t>
+  </si>
+  <si>
+    <t>Criar conexão ao Mysql via user criado: attendance_&lt;id-do-centro&gt;</t>
+  </si>
+  <si>
+    <t>Plataforma</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Navicat</t>
+  </si>
+  <si>
+    <t>Criar conta</t>
+  </si>
+  <si>
+    <t>Criar Centro (na conta criada)</t>
+  </si>
+  <si>
+    <t>Planilha</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Criar conta (com o e-mail do Centro)</t>
+  </si>
+  <si>
+    <t>Zoho Reports</t>
+  </si>
+  <si>
+    <t>Logar com o e-mail do Centro</t>
+  </si>
+  <si>
+    <t>Google Play</t>
+  </si>
+  <si>
+    <t>Baixar app: Zoho Reports</t>
+  </si>
+  <si>
+    <t>App Zoho Reports</t>
+  </si>
+  <si>
+    <t>Criar pasta: &lt;id-do-centro&gt;. &lt;Nome do Centro&gt;</t>
+  </si>
+  <si>
+    <t>Definir a pasta criada como padrão</t>
+  </si>
+  <si>
+    <t>Renomear Pasta "Tabelas e relatórios" para "Attendance" (para Tabelas)</t>
+  </si>
+  <si>
+    <t>Para cada view criada</t>
+  </si>
+  <si>
+    <t>.   Criar Tabela de "Consulte personalizada": select * from &lt;view&gt;</t>
+  </si>
+  <si>
+    <t>.   Definir o nome da Tabela com o mesmo nome da view</t>
+  </si>
+  <si>
+    <t>.   Acertar os campos tipo "date" e "e-mail"</t>
+  </si>
+  <si>
+    <t>.   Modo de importar: Apague os registros existentes e adicione</t>
+  </si>
+  <si>
+    <t>.   Modo de importar: Marcar: inclua nos colunas...</t>
+  </si>
+  <si>
+    <t>.   Modo de importar: agendamento: todos os dias</t>
+  </si>
+  <si>
+    <t>Verificar o sucesso da sincronização de cada Tabela (em fonte de dados)</t>
+  </si>
+  <si>
+    <t>Mover a pasta criada para cima</t>
+  </si>
+  <si>
+    <t>Criar o Painel &lt;Nome do Centro&gt; na Pasta: &lt;id-do-centro&gt;. &lt;Sigla do Centro&gt;</t>
+  </si>
+  <si>
+    <t>Publicar e copiar o link permanente do Painel criado</t>
+  </si>
+  <si>
+    <t>Criar um atalho na barra de favoritos do navegador com o link copiado</t>
+  </si>
+  <si>
+    <t>Editar o Centro e colar o link permanente do Painel criado</t>
+  </si>
+  <si>
+    <t>Navegador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,t.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ,CASE WHEN title is null THEN DATE_FORMAT(t.date,'%Y/%m/%d (%a)') ELSE CONCAT(DATE_FORMAT(t.date,'%Y/%m/%d (%a)')," - ",title) END date_and_title</t>
+  </si>
+  <si>
+    <t>Link para atualizar banco no resumo sr</t>
+  </si>
+  <si>
+    <t>WB: Posicionar login no canto superior direito</t>
+  </si>
+  <si>
+    <t>Permitir alteração da data de uma presença</t>
+  </si>
+  <si>
+    <t>Arrumar problema com envio de e-mails (está, por exemplo, impedindo o registro de novos usuários)</t>
+  </si>
+  <si>
+    <t>Resumo sr: query da view: mostrar apenas os 6 últimos meses</t>
+  </si>
+  <si>
+    <t>Ao registrar, dá trim no e-mail pra evitar o erro...</t>
+  </si>
+  <si>
+    <t>1 db pass = @attbi500</t>
+  </si>
+  <si>
+    <t>Data de aniversário formato? Dd/mm/yyy</t>
+  </si>
+  <si>
+    <t>Compartilhamento: Combo Atividades ordenado por título</t>
+  </si>
+  <si>
+    <t>Lançar presenças: Atividades ordenadas por título</t>
+  </si>
+  <si>
+    <t>Configuração da atividades de 'Sugerir pessoas' não está funcionando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +1044,61 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -902,7 +1156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -970,13 +1224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -998,13 +1246,104 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1593,9 +1932,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="48"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1929,11 +2268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,19 +2533,19 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:D2">
+  <autoFilter ref="B2:D2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="B3:D27">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2216,1060 +2555,982 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="21" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="25" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="33" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="34" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="35">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24">
+      <c r="D3" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="str">
+        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C4" s="35">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+      <c r="F4" s="38">
         <v>42948</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="str">
-        <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="str">
+        <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="35">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="D5" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="37">
         <v>2</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="str">
-        <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="22">
-        <v>3</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="34" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
         <v>Ficha de cadastro</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="35">
         <v>13</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="37">
         <v>4</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="34" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
         <v>Página de cadastro inteligente</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="35">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="37">
         <v>5</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="34" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
+        <v>Ficha de cadastro</v>
+      </c>
+      <c r="C8" s="35">
+        <v>13</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="37">
+        <v>8</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="str">
+        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+        <v>Ficha de cadastro</v>
+      </c>
+      <c r="C9" s="35">
+        <v>13</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="37">
+        <v>9</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="str">
+        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="35">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="22">
-        <v>6</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25" t="s">
+      <c r="D10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>42845</v>
+      </c>
+      <c r="G10" s="38">
+        <v>42853</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="str">
-        <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
+    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34" t="str">
+        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="35">
         <v>3</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="22">
-        <v>7</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
+      <c r="D11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
+        <v>42856</v>
+      </c>
+      <c r="G11" s="38">
+        <v>42867</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="22">
-        <v>8</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="str">
-        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="22">
-        <v>9</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="34" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="35">
         <v>3</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="22">
-        <v>10</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38">
+        <v>42870</v>
+      </c>
+      <c r="G12" s="38">
+        <v>42870</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="34" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38">
+        <v>42869</v>
+      </c>
+      <c r="G13" s="38">
+        <v>42870</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="str">
+        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+        <v>Backend - REST</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38">
+        <v>42870</v>
+      </c>
+      <c r="G14" s="38">
+        <v>42872</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="str">
+        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="22">
-        <v>11</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38">
+        <v>42875</v>
+      </c>
+      <c r="G15" s="38">
+        <v>42875</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="str">
+        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="35">
         <v>3</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24">
-        <v>42932</v>
-      </c>
-      <c r="G14" s="24">
-        <v>42935</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="D16" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38">
+        <v>42887</v>
+      </c>
+      <c r="G16" s="38">
+        <v>42887</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="str">
+        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38">
+        <v>42887</v>
+      </c>
+      <c r="G17" s="38">
+        <v>42893</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="str">
+        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C18" s="35">
+        <v>3</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38">
+        <v>42887</v>
+      </c>
+      <c r="G18" s="38">
+        <v>42893</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="str">
+        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C19" s="35">
+        <v>9</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38">
+        <v>42894</v>
+      </c>
+      <c r="G19" s="38">
+        <v>42912</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34" t="str">
+        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C20" s="35">
+        <v>9</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38">
+        <v>42894</v>
+      </c>
+      <c r="G20" s="38">
+        <v>42916</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="str">
+        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="24">
-        <v>42930</v>
-      </c>
-      <c r="G15" s="24">
-        <v>42930</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="D21" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38">
+        <v>42916</v>
+      </c>
+      <c r="G21" s="38">
+        <v>42923</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24">
-        <v>42927</v>
-      </c>
-      <c r="G16" s="24">
-        <v>42928</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24">
-        <v>42916</v>
-      </c>
-      <c r="G17" s="24">
-        <v>42923</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24">
-        <v>42845</v>
-      </c>
-      <c r="G18" s="24">
-        <v>42853</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24">
-        <v>42856</v>
-      </c>
-      <c r="G19" s="24">
-        <v>42867</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="str">
-        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24">
-        <v>42869</v>
-      </c>
-      <c r="G20" s="24">
-        <v>42870</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="str">
-        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24">
-        <v>42870</v>
-      </c>
-      <c r="G21" s="24">
-        <v>42870</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="str">
+      <c r="B22" s="34" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
         <v>Backend - REST</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="35">
         <v>2</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24">
-        <v>42870</v>
-      </c>
-      <c r="G22" s="24">
-        <v>42872</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38">
+        <v>42927</v>
+      </c>
+      <c r="G22" s="38">
+        <v>42928</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="str">
+      <c r="B23" s="34" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24">
-        <v>42875</v>
-      </c>
-      <c r="G23" s="24">
-        <v>42875</v>
-      </c>
-      <c r="H23" s="25" t="s">
+        <v>Backend - REST</v>
+      </c>
+      <c r="C23" s="35">
+        <v>2</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
+        <v>42930</v>
+      </c>
+      <c r="G23" s="38">
+        <v>42930</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="str">
+      <c r="B24" s="34" t="str">
         <f>IF(C24="","",VLOOKUP(C24,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="35">
         <v>3</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24">
-        <v>42887</v>
-      </c>
-      <c r="G24" s="24">
-        <v>42887</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="D24" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38">
+        <v>42932</v>
+      </c>
+      <c r="G24" s="38">
+        <v>42935</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="str">
+      <c r="B25" s="34" t="str">
         <f>IF(C25="","",VLOOKUP(C25,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24">
-        <v>42887</v>
-      </c>
-      <c r="G25" s="24">
-        <v>42893</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="C25" s="35">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="str">
+      <c r="B26" s="34" t="str">
         <f>IF(C26="","",VLOOKUP(C26,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24">
-        <v>42887</v>
-      </c>
-      <c r="G26" s="24">
-        <v>42893</v>
-      </c>
-      <c r="H26" s="25" t="s">
+        <v>DB</v>
+      </c>
+      <c r="C26" s="35">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="str">
+      <c r="B27" s="34" t="str">
         <f>IF(C27="","",VLOOKUP(C27,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
-      </c>
-      <c r="C27" s="2">
-        <v>9</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24">
-        <v>42894</v>
-      </c>
-      <c r="G27" s="24">
-        <v>42912</v>
-      </c>
-      <c r="H27" s="25" t="s">
+        <v>DB</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="str">
+      <c r="B28" s="34" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24">
-        <v>42894</v>
-      </c>
-      <c r="G28" s="24">
-        <v>42916</v>
-      </c>
-      <c r="H28" s="25" t="s">
+        <v>DB</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="str">
+      <c r="B29" s="34" t="str">
         <f>IF(C29="","",VLOOKUP(C29,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
+      <c r="C29" s="35">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="str">
+      <c r="B30" s="34" t="str">
         <f>IF(C30="","",VLOOKUP(C30,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25" t="s">
+        <v>DB</v>
+      </c>
+      <c r="C30" s="35">
+        <v>1</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="str">
+      <c r="B31" s="34" t="str">
         <f>IF(C31="","",VLOOKUP(C31,Módulos!B:C,2,FALSE))</f>
         <v>Tableau - Zoho Reports</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="35">
         <v>9</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25" t="s">
+      <c r="D31" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="str">
+      <c r="B32" s="34" t="str">
         <f>IF(C32="","",VLOOKUP(C32,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25" t="s">
+        <v>DB</v>
+      </c>
+      <c r="C32" s="35">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="str">
+      <c r="B33" s="34" t="str">
         <f>IF(C33="","",VLOOKUP(C33,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25" t="s">
+      <c r="C33" s="35">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="str">
+      <c r="B34" s="34" t="str">
         <f>IF(C34="","",VLOOKUP(C34,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25" t="s">
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="str">
+      <c r="B35" s="34" t="str">
         <f>IF(C35="","",VLOOKUP(C35,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25" t="s">
+      <c r="C35" s="35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="str">
+      <c r="B36" s="34" t="str">
         <f>IF(C36="","",VLOOKUP(C36,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
+      <c r="C36" s="35">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="str">
+      <c r="B37" s="34" t="str">
         <f>IF(C37="","",VLOOKUP(C37,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25" t="s">
+      <c r="C37" s="35">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23" t="str">
+      <c r="B38" s="34" t="str">
         <f>IF(C38="","",VLOOKUP(C38,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
+      <c r="C38" s="35">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="str">
+      <c r="B39" s="34" t="str">
         <f>IF(C39="","",VLOOKUP(C39,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25" t="s">
+      <c r="C39" s="35">
+        <v>1</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="str">
+      <c r="B40" s="34" t="str">
         <f>IF(C40="","",VLOOKUP(C40,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25" t="s">
+      <c r="C40" s="35">
+        <v>1</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="str">
+      <c r="B41" s="34" t="str">
         <f>IF(C41="","",VLOOKUP(C41,Módulos!B:C,2,FALSE))</f>
         <v>DB</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25" t="s">
+      <c r="C41" s="35">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="str">
+      <c r="B42" s="34" t="str">
         <f>IF(C42="","",VLOOKUP(C42,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25" t="s">
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C42" s="35">
+        <v>9</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="str">
+      <c r="B43" s="34" t="str">
         <f>IF(C43="","",VLOOKUP(C43,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25" t="s">
+        <v>Front - Web</v>
+      </c>
+      <c r="C43" s="35">
+        <v>3</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="34" t="str">
         <f>IF(C44="","",VLOOKUP(C44,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25" t="s">
+        <v>Página de cadastro inteligente</v>
+      </c>
+      <c r="C44" s="35">
+        <v>12</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="34" t="str">
         <f>IF(C45="","",VLOOKUP(C45,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25" t="s">
+        <v>API - Google Contatcs</v>
+      </c>
+      <c r="C45" s="35">
+        <v>7</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="str">
-        <f>IF(C46="","",VLOOKUP(C46,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="str">
-        <f>IF(C47="","",VLOOKUP(C47,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="str">
-        <f>IF(C48="","",VLOOKUP(C48,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
-      </c>
-      <c r="C48" s="2">
-        <v>12</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="str">
-        <f>IF(C49="","",VLOOKUP(C49,Módulos!B:C,2,FALSE))</f>
-        <v>API - Google Contatcs</v>
-      </c>
-      <c r="C49" s="2">
-        <v>7</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:H2">
-    <sortState ref="B3:H49">
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="B3:H45">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E3:E49">
-    <cfRule type="cellIs" dxfId="44" priority="34" operator="equal">
+  <conditionalFormatting sqref="E3:E45">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1"/>
-    <hyperlink ref="H19" r:id="rId2"/>
-    <hyperlink ref="H20" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H21" r:id="rId5"/>
-    <hyperlink ref="H25" r:id="rId6"/>
-    <hyperlink ref="H27" r:id="rId7"/>
-    <hyperlink ref="H26" r:id="rId8"/>
-    <hyperlink ref="H24" r:id="rId9"/>
-    <hyperlink ref="H23" r:id="rId10"/>
-    <hyperlink ref="H42" r:id="rId11"/>
-    <hyperlink ref="H28" r:id="rId12"/>
-    <hyperlink ref="H29" r:id="rId13"/>
-    <hyperlink ref="H30" r:id="rId14"/>
-    <hyperlink ref="H31" r:id="rId15"/>
-    <hyperlink ref="H32" r:id="rId16"/>
-    <hyperlink ref="H6" r:id="rId17"/>
-    <hyperlink ref="H7" r:id="rId18"/>
-    <hyperlink ref="H16" r:id="rId19"/>
-    <hyperlink ref="H15" r:id="rId20"/>
-    <hyperlink ref="H10" r:id="rId21"/>
-    <hyperlink ref="H11" r:id="rId22"/>
-    <hyperlink ref="H33" r:id="rId23"/>
-    <hyperlink ref="H34" r:id="rId24"/>
-    <hyperlink ref="H35" r:id="rId25"/>
-    <hyperlink ref="H36" r:id="rId26"/>
-    <hyperlink ref="H37" r:id="rId27"/>
-    <hyperlink ref="H38" r:id="rId28"/>
-    <hyperlink ref="H39" r:id="rId29"/>
-    <hyperlink ref="H40" r:id="rId30"/>
-    <hyperlink ref="H41" r:id="rId31"/>
-    <hyperlink ref="H43" r:id="rId32"/>
-    <hyperlink ref="H44" r:id="rId33"/>
-    <hyperlink ref="H45" r:id="rId34"/>
-    <hyperlink ref="H46" r:id="rId35"/>
-    <hyperlink ref="H47" r:id="rId36"/>
-    <hyperlink ref="H48" r:id="rId37"/>
-    <hyperlink ref="H49" r:id="rId38"/>
-    <hyperlink ref="H17" r:id="rId39"/>
-    <hyperlink ref="H14" r:id="rId40"/>
-    <hyperlink ref="H3" r:id="rId41"/>
-    <hyperlink ref="H4" r:id="rId42"/>
-    <hyperlink ref="H5" r:id="rId43"/>
-    <hyperlink ref="H8" r:id="rId44"/>
-    <hyperlink ref="H9" r:id="rId45"/>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H17" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H19" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H30" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="H43" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="H42" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H31" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="H6" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H8" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H9" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H40" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="H39" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="H38" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="H37" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="H36" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="H35" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="H34" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="H33" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="H32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="H28" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="H29" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="H27" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="H26" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="H25" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="H44" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="H45" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="H21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H24" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="H4" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="H5" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="H3" r:id="rId43" xr:uid="{B5D40CEC-7368-401D-8727-9C52F93770B2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="30" customWidth="1"/>
-    <col min="5" max="5" width="109.625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="3.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="25" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3277,10 +3538,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>64</v>
@@ -3290,235 +3551,329 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="str">
+      <c r="B3" s="25" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C3" s="28">
-        <v>3</v>
-      </c>
-      <c r="D3" s="28">
+        <v>Backend - REST</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26">
         <v>0</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="24">
-        <v>42955</v>
+      <c r="E3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="23">
+        <v>43238</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="str">
+      <c r="B4" s="25" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="24">
-        <v>42936</v>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="23">
+        <v>43241</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="str">
+      <c r="B5" s="25" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="24">
-        <v>42933</v>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="23">
+        <v>43343</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="str">
+      <c r="B6" s="25" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="24">
-        <v>42933</v>
+      <c r="D6" s="53">
+        <v>43343</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="23">
+        <v>43343</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="str">
+      <c r="B7" s="25" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="24">
-        <v>42927</v>
+      <c r="D7" s="53">
+        <v>43343</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="23">
+        <v>43343</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="25" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
         <v>Front - Web</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="24">
-        <v>42927</v>
+      <c r="D8" s="53">
+        <v>43343</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="23">
+        <v>43341</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="str">
+      <c r="B9" s="25" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
         <v>Tableau - Zoho Reports</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>9</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="23">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="str">
+        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
+        <v>DB</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="23">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="str">
+        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="E11" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="23">
+        <v>42955</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="str">
+        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>3</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="23">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="str">
+        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C13" s="26">
+        <v>3</v>
+      </c>
+      <c r="D13" s="26">
+        <v>3</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="23">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="str">
+        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C14" s="26">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26">
+        <v>3</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="23">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="str">
+        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" s="26">
+        <v>4</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="23">
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="str">
+        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
+        <v>Front - Web</v>
+      </c>
+      <c r="C16" s="26">
+        <v>3</v>
+      </c>
+      <c r="D16" s="26">
+        <v>4</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="23">
+        <v>42927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="str">
+        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
+        <v>Tableau - Zoho Reports</v>
+      </c>
+      <c r="C17" s="26">
+        <v>9</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="23">
         <v>42921</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="str">
-        <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="str">
-        <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="str">
-        <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="24"/>
-    </row>
     <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="str">
+      <c r="B18" s="25" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
         <v/>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="24"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="str">
+        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="str">
+        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="str">
+        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F2">
-    <sortState ref="B3:F18">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState ref="B3:F21">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F3:F18">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+  <conditionalFormatting sqref="F3:F21">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"~"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3528,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3545,25 +3900,25 @@
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3717,17 +4072,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H11">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3736,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5012,188 +5367,188 @@
       <c r="G82" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15">
+  <autoFilter ref="A1:G15" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState ref="A2:K7">
       <sortCondition ref="A1:A5"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D12:G12">
-    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C82">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:G17 D19:G82">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:G11">
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G4">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G4">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G7">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G8">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G8">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:G10">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5203,11 +5558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A274"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A97:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,12 +5579,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5239,267 +5594,257 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -5509,112 +5854,117 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -5624,227 +5974,222 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
@@ -5852,632 +6197,1313 @@
         <v>175</v>
       </c>
     </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363D8E31-F0E6-478D-B679-95450EE6AD87}">
+  <dimension ref="A1:A73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D2BF20-D861-4BBD-8AA0-E451AF44DE6C}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.875" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="G2" s="52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="47"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45">
+        <v>27</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45">
+        <v>28</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="47"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45">
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="47"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="47"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState ref="A2:E32">
+      <sortCondition ref="A1:A5"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <conditionalFormatting sqref="D3:D32 E2:E32">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D1:E1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551EADE-E9D4-4BD0-91BA-1CACDE0B9E5A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796E849-8ED3-4C8A-AC07-CCB3992AE65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,30 @@
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
     <sheet name="Projetos" sheetId="19" r:id="rId2"/>
     <sheet name="Backlog" sheetId="20" r:id="rId3"/>
-    <sheet name="Migração v2" sheetId="21" r:id="rId4"/>
-    <sheet name="Migração v1" sheetId="16" r:id="rId5"/>
-    <sheet name="vw" sheetId="22" r:id="rId6"/>
-    <sheet name="vw_1" sheetId="24" r:id="rId7"/>
-    <sheet name="Check User" sheetId="26" r:id="rId8"/>
+    <sheet name="Check User" sheetId="26" r:id="rId4"/>
+    <sheet name="Migração v2" sheetId="21" r:id="rId5"/>
+    <sheet name="Migração v1" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backlog!$B$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Check User'!$A$1:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Check User'!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Migração v1'!$A$1:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="153">
   <si>
     <t>Seq.</t>
   </si>
@@ -314,402 +319,6 @@
     <t>Apres. Attendance Shintani, Miguel, Felipe Gualb.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- **************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_attendance</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_attendance;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_attendance as</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_resumo_mensal_inner</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_resumo_mensal_inner;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_resumo_mensal_inner as</t>
-  </si>
-  <si>
-    <t>from     vw_attendance a, resumo_mensal r</t>
-  </si>
-  <si>
-    <t>where    r.id = resumo_mensal_id;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -- **************************</t>
-  </si>
-  <si>
-    <t>from     vw_resumo_mensal_inner</t>
-  </si>
-  <si>
-    <t>where    id = 4</t>
-  </si>
-  <si>
-    <t>and      check_universitario = 1</t>
-  </si>
-  <si>
-    <t>GROUP BY center_id, ano_mes</t>
-  </si>
-  <si>
-    <t>union ALL</t>
-  </si>
-  <si>
-    <t>and      check_colegial = 1</t>
-  </si>
-  <si>
-    <t>where    id = 6</t>
-  </si>
-  <si>
-    <t>where    id = 10</t>
-  </si>
-  <si>
-    <t>where    id = 12</t>
-  </si>
-  <si>
-    <t>where    id = 14</t>
-  </si>
-  <si>
-    <t>where    id = 15</t>
-  </si>
-  <si>
-    <t>where    id = 16</t>
-  </si>
-  <si>
-    <t>where    id = 20</t>
-  </si>
-  <si>
-    <t>where    id = 22</t>
-  </si>
-  <si>
-    <t>where    id = 24</t>
-  </si>
-  <si>
-    <t>from     vw_resumo_mensal_inner i</t>
-  </si>
-  <si>
-    <t>where    i.id in (select id from resumo_mensal)</t>
-  </si>
-  <si>
-    <t>and      check_universitario &lt;&gt; 1</t>
-  </si>
-  <si>
-    <t>and      check_colegial &lt;&gt; 1</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_resumo_sr;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_resumo_sr as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -- vw_resumo_sr</t>
-  </si>
-  <si>
-    <t>from     resumo_mensal</t>
-  </si>
-  <si>
-    <t>where    labor = 'sr'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_resumo_mensal_avg</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_resumo_mensal_avg;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_resumo_mensal_avg as</t>
-  </si>
-  <si>
-    <t>from     vw_resumo_mensal_inner v</t>
-  </si>
-  <si>
-    <t>from     vw_resumo_mensal_avg</t>
-  </si>
-  <si>
-    <t>where    id = 17</t>
-  </si>
-  <si>
-    <t>from     vw_resumo_mensal_avg v</t>
-  </si>
-  <si>
-    <t>select  t.id attendance_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,t.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,t.activity_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,t.person_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,a.description activity_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,a.name activity_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,a.name_complement activity_name_complement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,a.resumo_mensal_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.short_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.tag1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.tag2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.tag3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.tag4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_contribui_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_cooperador_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_estudante_mail_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_estudantewadate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_profissional_mail_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.check_profissionalwadate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,c.id center_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,c.description center_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,c.name center_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,c.owner_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,u.email owner_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,u.name owner_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,u.username owner_username</t>
-  </si>
-  <si>
-    <t>from attendance t, activity a, person p, center c, user u</t>
-  </si>
-  <si>
-    <t>where t.activity_id = a.id</t>
-  </si>
-  <si>
-    <t>and t.person_id = p.id</t>
-  </si>
-  <si>
-    <t>and a.center_id = c.id</t>
-  </si>
-  <si>
-    <t>and c.owner_id = u.id;</t>
-  </si>
-  <si>
-    <t>SELECT   distinct center_id, date_format(date, '%Y') ano, date_format(date, '%Y/%m') ano_mes, a.person_id, name nome, check_universitario, check_colegial, r.*</t>
-  </si>
-  <si>
-    <t>SELECT   center_id, date_format(date, '%Y') ano, date_format(date, '%Y/%m') ano_mes, a.person_id, name nome, check_universitario, check_colegial, r.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select   'center_id', 'ano', 'ano_mes', id, numero, letra, descricao, letra_descricao_nota, descricao_nota, 0 total </t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, id, numero, letra, descricao, letra_descricao_nota, descricao_nota, count(*) total</t>
-  </si>
-  <si>
-    <t>GROUP BY center_id, ano, ano_mes</t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, (id+1), numero, 'b', (select descricao from resumo_mensal where id = (v.id+1)), letra_descricao_nota, descricao_nota, count(*) total</t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, id, numero, letra, descricao, letra_descricao_nota, descricao_nota, round(count(*)/4) media</t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, (id+1), numero, 'b', (select descricao from resumo_mensal where id = (v.id+1)), letra_descricao_nota, descricao_nota, round(count(*)/4) media</t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, 1, '' numero, '' letra, '* SEM LABOR' descricao, '' letra_descricao_nota, '' descricao_nota, count(*)</t>
-  </si>
-  <si>
-    <t>select   center_id, ano, ano_mes, 1, '' numero, '' letra, '* U + C' descricao, '' letra_descricao_nota, '' descricao_nota, count(*)</t>
-  </si>
-  <si>
-    <t>GROUP BY center_id, ano, ano_mes;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_person</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_person;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_person as</t>
-  </si>
-  <si>
-    <t>from person p;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_colegial = 1, '1','0') check_colegial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_universitario = 1, '1','0') check_universitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_contribui = 1, '1','0') check_contribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_cooperador = 1, '1','0') check_cooperador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_estudante_mail = 1, '1','0') check_estudante_mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_estudantewa = 1, '1','0') check_estudantewa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_profissional_mail = 1, '1','0') check_profissional_mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(p.check_profissionalwa = 1, '1','0') check_profissionalwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from vw_attendance where person_id = p.id and activity_name_complement = 'sr') sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from vw_attendance where person_id = p.id and activity_name_complement = 'sg') sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 1) sr_direcao_espiritual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 2) sr_meditacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 3) sr_recolhimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 4) sr_curso_basico_doutrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 5) sr_catequese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id in (6,10,11)) sr_circulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 7) sr_retiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 8) sr_convivio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,(select max(date) from attendance where person_id = p.id and activity_id = 9) sr_vpv</t>
-  </si>
-  <si>
-    <t>select  p.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,p.center_id</t>
-  </si>
-  <si>
-    <t>-- **************************</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          select 01 id, 'ps' type, count(*) total, '01. Nomes' aspect from vw_person where center_id = 1</t>
-  </si>
-  <si>
-    <t>union all select 02 id, 'ps' type, count(*) total, '02. NEW' aspect from vw_person where center_id = 1 and `status` = 0</t>
-  </si>
-  <si>
-    <t>union all select 03 id, 'ps' type, count(*) total, '03. Nomes curtos' aspect from vw_person where center_id = 1 and short_name is not null</t>
-  </si>
-  <si>
-    <t>union all select 04 id, 'sr' type, count(*) total, '04. Universitários' aspect from vw_person where center_id = 1 and check_universitario = 1</t>
-  </si>
-  <si>
-    <t>union all select 05 id, 'sr' type, count(*) total, '05. Colegiais' aspect from vw_person where center_id = 1 and check_colegial = 1</t>
-  </si>
-  <si>
-    <t>union all select 06 id, 'ps' type, count(*) total, '06. Com telefone' aspect from vw_person where center_id = 1 and phone is not null</t>
-  </si>
-  <si>
-    <t>union all select 07 id, 'ps' type, count(*) total, '07. Sem telefone' aspect from vw_person where center_id = 1 and phone is null</t>
-  </si>
-  <si>
-    <t>union all select 08 id, 'ps' type, count(*) total, '08. Com aniversário' aspect from vw_person where center_id = 1 and birthday is not null</t>
-  </si>
-  <si>
-    <t>union all select 09 id, 'ps' type, count(*) total, '09. Sem aniversário' aspect from vw_person where center_id = 1 and birthday is null</t>
-  </si>
-  <si>
-    <t>union all select 10 id, 'ps' type, count(*) total, '10. Com e-mail' aspect from vw_person where center_id = 1 and email is not null</t>
-  </si>
-  <si>
-    <t>union all select 11 id, 'ps' type, count(*) total, '11. Sem e-mail' aspect from vw_person where center_id = 1 and email is null</t>
-  </si>
-  <si>
-    <t>union all select 12 id, 'sr' type, count(*) total, '12. Lista do WhatsApp de sr' aspect from vw_person where center_id = 1 and check_estudantewa = 1</t>
-  </si>
-  <si>
-    <t>union all select 13 id, 'sr' type, count(*) total, '13. Lista de e-mail de sr' aspect from vw_person where center_id = 1 and check_estudante_mail = 1</t>
-  </si>
-  <si>
-    <t>union all select 14 id, 'sg' type, count(*) total, '14. Cooperadores' aspect from vw_person where center_id = 1 and check_cooperador = 1</t>
-  </si>
-  <si>
-    <t>union all select 15 id, 'sg' type, count(*) total, '15. Cooperadores que contribuem (R$)' aspect from vw_person where center_id = 1 and check_contribui = 1</t>
-  </si>
-  <si>
-    <t>union all select 16 id, 'sg' type, count(*) total, '16. Lista do WhatsApp de sg' aspect from vw_person where center_id = 1 and check_profissionalwa = 1</t>
-  </si>
-  <si>
-    <t>union all select 17 id, 'sg' type, count(*) total, '17. Lista de e-mail de sg' aspect from vw_person where center_id = 1 and check_profissional_mail = 1;</t>
-  </si>
-  <si>
-    <t>Tornar dinâmico campos amarelos de resumo de junho</t>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -722,9 +331,6 @@
     <t>presenças: expandir linha título</t>
   </si>
   <si>
-    <t>presenças: mais de 30 dias, não mostra mais o nr de dias</t>
-  </si>
-  <si>
     <t>CRUD: Sharing</t>
   </si>
   <si>
@@ -746,99 +352,6 @@
     <t>WB: Formato da tela de login (zuado no celular)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -- vw_1_attendance</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_1_attendance;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_1_attendance as</t>
-  </si>
-  <si>
-    <t>select  v.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_name_complement = 'sr', 1, 0) sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_name_complement = 'sg', 1, 0) sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 1, 1, 0) sr_direcao_espiritual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 2, 1, 0) sr_meditacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 3, 1, 0) sr_recolhimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 4, 1, 0) sr_curso_basico_doutrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 5, 1, 0) sr_catequese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id in (6,10,11), 1, 0) sr_circulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 7, 1, 0) sr_retiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 8, 1, 0) sr_convivio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,if(activity_id = 9, 1, 0) sr_vpv</t>
-  </si>
-  <si>
-    <t>from vw_attendance as v</t>
-  </si>
-  <si>
-    <t>where v.center_id = 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -- vw_1_resumo_sr</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_1_resumo_sr;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_1_resumo_sr as</t>
-  </si>
-  <si>
-    <t>select * from vw_resumo_sr</t>
-  </si>
-  <si>
-    <t>where center_id in ('center_id', '1');</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_1_person</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_1_person;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_1_person as</t>
-  </si>
-  <si>
-    <t>select  p.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -- vw_1_person_count</t>
-  </si>
-  <si>
-    <t>DROP view IF EXISTS vw_1_person_count;</t>
-  </si>
-  <si>
-    <t>CREATE view vw_1_person_count as</t>
-  </si>
-  <si>
-    <t>from vw_person p</t>
-  </si>
-  <si>
-    <t>where center_id = 1;</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -962,12 +475,6 @@
     <t>Navegador</t>
   </si>
   <si>
-    <t xml:space="preserve">       ,t.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       ,CASE WHEN title is null THEN DATE_FORMAT(t.date,'%Y/%m/%d (%a)') ELSE CONCAT(DATE_FORMAT(t.date,'%Y/%m/%d (%a)')," - ",title) END date_and_title</t>
-  </si>
-  <si>
     <t>Link para atualizar banco no resumo sr</t>
   </si>
   <si>
@@ -983,29 +490,23 @@
     <t>Resumo sr: query da view: mostrar apenas os 6 últimos meses</t>
   </si>
   <si>
-    <t>Ao registrar, dá trim no e-mail pra evitar o erro...</t>
-  </si>
-  <si>
     <t>1 db pass = @attbi500</t>
   </si>
   <si>
-    <t>Data de aniversário formato? Dd/mm/yyy</t>
-  </si>
-  <si>
-    <t>Compartilhamento: Combo Atividades ordenado por título</t>
-  </si>
-  <si>
-    <t>Lançar presenças: Atividades ordenadas por título</t>
-  </si>
-  <si>
-    <t>Configuração da atividades de 'Sugerir pessoas' não está funcionando</t>
+    <t>Tornar dinâmico campos amarelos de resumo de junho de 2017</t>
+  </si>
+  <si>
+    <t>Presenças: data como label (um objeto data para dar suporte...): Atividade: dd/mm/aaaa (sss)</t>
+  </si>
+  <si>
+    <t>Presenças: mais de 30 dias, não mostra mais o nr de dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,13 +570,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1156,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1276,26 +770,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2605,35 +2095,35 @@
       <c r="C3" s="35">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>312</v>
+      <c r="D3" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="37">
         <v>0</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="38">
+        <v>42948</v>
+      </c>
       <c r="G3" s="38"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C4" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="E4" s="37">
-        <v>1</v>
-      </c>
-      <c r="F4" s="38">
-        <v>42948</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="39" t="s">
         <v>61</v>
@@ -2642,16 +2132,16 @@
     <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C5" s="35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="E5" s="37">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -2662,19 +2152,21 @@
     <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C6" s="35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="37">
-        <v>4</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+        <v>55</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38">
+        <v>42845</v>
+      </c>
+      <c r="G6" s="38">
+        <v>42853</v>
+      </c>
       <c r="H6" s="39" t="s">
         <v>61</v>
       </c>
@@ -2682,19 +2174,21 @@
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Página de cadastro inteligente</v>
+        <v>Front - Web</v>
       </c>
       <c r="C7" s="35">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="37">
-        <v>5</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38">
+        <v>42856</v>
+      </c>
+      <c r="G7" s="38">
+        <v>42867</v>
+      </c>
       <c r="H7" s="39" t="s">
         <v>61</v>
       </c>
@@ -2702,19 +2196,21 @@
     <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Front - Web</v>
       </c>
       <c r="C8" s="35">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="37">
-        <v>8</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38">
+        <v>42870</v>
+      </c>
+      <c r="G8" s="38">
+        <v>42870</v>
+      </c>
       <c r="H8" s="39" t="s">
         <v>61</v>
       </c>
@@ -2722,19 +2218,21 @@
     <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Ficha de cadastro</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C9" s="35">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="37">
-        <v>9</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38">
+        <v>42869</v>
+      </c>
+      <c r="G9" s="38">
+        <v>42870</v>
+      </c>
       <c r="H9" s="39" t="s">
         <v>61</v>
       </c>
@@ -2748,14 +2246,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38">
-        <v>42845</v>
+        <v>42870</v>
       </c>
       <c r="G10" s="38">
-        <v>42853</v>
+        <v>42872</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>61</v>
@@ -2764,20 +2262,20 @@
     <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C11" s="35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="38">
-        <v>42856</v>
+        <v>42875</v>
       </c>
       <c r="G11" s="38">
-        <v>42867</v>
+        <v>42875</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>61</v>
@@ -2792,14 +2290,14 @@
         <v>3</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="38">
-        <v>42870</v>
+        <v>42887</v>
       </c>
       <c r="G12" s="38">
-        <v>42870</v>
+        <v>42887</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>61</v>
@@ -2808,20 +2306,20 @@
     <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>DB</v>
       </c>
       <c r="C13" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38">
-        <v>42869</v>
+        <v>42887</v>
       </c>
       <c r="G13" s="38">
-        <v>42870</v>
+        <v>42893</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>61</v>
@@ -2830,20 +2328,20 @@
     <row r="14" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C14" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="38">
-        <v>42870</v>
+        <v>42887</v>
       </c>
       <c r="G14" s="38">
-        <v>42872</v>
+        <v>42893</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>61</v>
@@ -2852,20 +2350,20 @@
     <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C15" s="35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="38">
-        <v>42875</v>
+        <v>42894</v>
       </c>
       <c r="G15" s="38">
-        <v>42875</v>
+        <v>42912</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>61</v>
@@ -2874,20 +2372,20 @@
     <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C16" s="35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="38">
-        <v>42887</v>
+        <v>42894</v>
       </c>
       <c r="G16" s="38">
-        <v>42887</v>
+        <v>42916</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>61</v>
@@ -2896,20 +2394,20 @@
     <row r="17" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C17" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
-        <v>42887</v>
+        <v>42916</v>
       </c>
       <c r="G17" s="38">
-        <v>42893</v>
+        <v>42923</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>61</v>
@@ -2918,20 +2416,20 @@
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="str">
         <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C18" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38">
-        <v>42887</v>
+        <v>42927</v>
       </c>
       <c r="G18" s="38">
-        <v>42893</v>
+        <v>42928</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>61</v>
@@ -2940,20 +2438,20 @@
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="str">
         <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C19" s="35">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
-        <v>42894</v>
+        <v>42930</v>
       </c>
       <c r="G19" s="38">
-        <v>42912</v>
+        <v>42930</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>61</v>
@@ -2962,20 +2460,20 @@
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C20" s="35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="38">
-        <v>42894</v>
+        <v>42932</v>
       </c>
       <c r="G20" s="38">
-        <v>42916</v>
+        <v>42935</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>61</v>
@@ -2984,20 +2482,20 @@
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C21" s="35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38">
-        <v>42916</v>
+        <v>43241</v>
       </c>
       <c r="G21" s="38">
-        <v>42923</v>
+        <v>43241</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>61</v>
@@ -3006,20 +2504,20 @@
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="str">
         <f>IF(C22="","",VLOOKUP(C22,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Página de cadastro inteligente</v>
       </c>
       <c r="C22" s="35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38">
-        <v>42927</v>
+        <v>43277</v>
       </c>
       <c r="G22" s="38">
-        <v>42928</v>
+        <v>43277</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>61</v>
@@ -3028,20 +2526,20 @@
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Ficha de cadastro</v>
       </c>
       <c r="C23" s="35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38">
-        <v>42930</v>
+        <v>43343</v>
       </c>
       <c r="G23" s="38">
-        <v>42930</v>
+        <v>43343</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>61</v>
@@ -3055,17 +2553,17 @@
       <c r="C24" s="35">
         <v>3</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>229</v>
+      <c r="D24" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38">
-        <v>42932</v>
+        <v>43347</v>
       </c>
       <c r="G24" s="38">
-        <v>42935</v>
-      </c>
-      <c r="H24" s="39" t="s">
+        <v>43347</v>
+      </c>
+      <c r="H24" s="49" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3465,28 +2963,28 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H17" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="H19" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="H30" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="H41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="H43" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="H42" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="H31" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="H6" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="H22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="H8" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H9" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="H18" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="H19" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="H23" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H5" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="H40" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
     <hyperlink ref="H39" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="H38" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
@@ -3503,11 +3001,11 @@
     <hyperlink ref="H25" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="H44" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="H45" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="H21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H24" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="H4" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="H5" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="H3" r:id="rId43" xr:uid="{B5D40CEC-7368-401D-8727-9C52F93770B2}"/>
+    <hyperlink ref="H17" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H20" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="H3" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="H4" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="H24" r:id="rId43" xr:uid="{B5D40CEC-7368-401D-8727-9C52F93770B2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
@@ -3519,7 +3017,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,10 +3036,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>64</v>
@@ -3562,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="F3" s="23">
         <v>43238</v>
@@ -3571,19 +3069,19 @@
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Backend - REST</v>
       </c>
       <c r="C4" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="F4" s="23">
-        <v>43241</v>
+        <v>43348</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,13 +3093,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="F5" s="23">
-        <v>43343</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,50 +3110,50 @@
       <c r="C6" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="53">
-        <v>43343</v>
+      <c r="D6" s="26">
+        <v>2</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="F6" s="23">
-        <v>43343</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C7" s="26">
+        <v>9</v>
+      </c>
+      <c r="D7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="53">
-        <v>43343</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>319</v>
+      <c r="E7" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="F7" s="23">
-        <v>43343</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C8" s="26">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="53">
-        <v>43343</v>
-      </c>
       <c r="E8" s="27" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="F8" s="23">
-        <v>43341</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3667,31 +3165,31 @@
         <v>9</v>
       </c>
       <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>310</v>
+        <v>4</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="F9" s="23">
-        <v>43093</v>
+        <v>42921</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="str">
         <f>IF(C10="","",VLOOKUP(C10,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C10" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="F10" s="23">
-        <v>43238</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3703,13 +3201,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="F11" s="23">
-        <v>42955</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,13 +3219,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="F12" s="23">
-        <v>42936</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3739,86 +3237,54 @@
         <v>3</v>
       </c>
       <c r="D13" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="F13" s="23">
-        <v>42933</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="str">
         <f>IF(C14="","",VLOOKUP(C14,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C14" s="26">
-        <v>3</v>
-      </c>
-      <c r="D14" s="26">
-        <v>3</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="23">
-        <v>42933</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C15" s="26">
-        <v>3</v>
-      </c>
-      <c r="D15" s="26">
-        <v>4</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="23">
-        <v>42927</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="str">
         <f>IF(C16="","",VLOOKUP(C16,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C16" s="26">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26">
-        <v>4</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="23">
-        <v>42927</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="str">
         <f>IF(C17="","",VLOOKUP(C17,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
-      </c>
-      <c r="C17" s="26">
-        <v>9</v>
-      </c>
-      <c r="D17" s="26">
-        <v>5</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="23">
-        <v>42921</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="str">
@@ -3861,7 +3327,7 @@
       <c r="F21" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F2" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="B2:F2" xr:uid="{1AE9C585-C8FC-4AEA-B4A0-D7A8652181E9}">
     <sortState ref="B3:F21">
       <sortCondition ref="D2"/>
     </sortState>
@@ -3883,6 +3349,534 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D2BF20-D861-4BBD-8AA0-E451AF44DE6C}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="46"/>
+      <c r="G2" s="51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
+        <v>25</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
+        <v>31</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="46"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState ref="A2:E32">
+      <sortCondition ref="A1:A5"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <conditionalFormatting sqref="D3:D32 E2:E32">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D1:E1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4072,17 +4066,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H11">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4090,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
@@ -5373,2137 +5367,186 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D12:G12">
-    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C82">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:G17 D19:G82">
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:G11">
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:G3">
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G4">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G4">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G2">
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:G5">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:G7">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G7">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G8">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:G8">
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:G10">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:G10">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A229"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A107" sqref="A97:A107"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363D8E31-F0E6-478D-B679-95450EE6AD87}">
-  <dimension ref="A1:A73"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D2BF20-D861-4BBD-8AA0-E451AF44DE6C}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="47"/>
-      <c r="G2" s="52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
-        <v>21</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
-        <v>22</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="47"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
-        <v>23</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="47"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
-        <v>24</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
-        <v>25</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
-        <v>26</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
-        <v>27</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
-        <v>28</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="47"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
-        <v>29</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
-        <v>30</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="47"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
-        <v>31</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="47"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState ref="A2:E32">
-      <sortCondition ref="A1:A5"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:C28">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <conditionalFormatting sqref="D3:D32 E2:E32">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D1:E1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796E849-8ED3-4C8A-AC07-CCB3992AE65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03182E35-5C02-402A-BF01-449392BC49B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Módulos!$B$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Projetos!$B$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="150">
   <si>
     <t>Seq.</t>
   </si>
@@ -484,9 +485,6 @@
     <t>Permitir alteração da data de uma presença</t>
   </si>
   <si>
-    <t>Arrumar problema com envio de e-mails (está, por exemplo, impedindo o registro de novos usuários)</t>
-  </si>
-  <si>
     <t>Resumo sr: query da view: mostrar apenas os 6 últimos meses</t>
   </si>
   <si>
@@ -494,12 +492,6 @@
   </si>
   <si>
     <t>Tornar dinâmico campos amarelos de resumo de junho de 2017</t>
-  </si>
-  <si>
-    <t>Presenças: data como label (um objeto data para dar suporte...): Atividade: dd/mm/aaaa (sss)</t>
-  </si>
-  <si>
-    <t>Presenças: mais de 30 dias, não mostra mais o nr de dias</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2016,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:D2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="B3:D27">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D27">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
@@ -2947,7 +2939,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:H2" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="B3:H45">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H45">
       <sortCondition ref="E2"/>
     </sortState>
   </autoFilter>
@@ -3014,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,127 +3043,127 @@
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="str">
         <f>IF(C3="","",VLOOKUP(C3,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Front - Web</v>
       </c>
       <c r="C3" s="26">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F3" s="23">
-        <v>43238</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Backend - REST</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C4" s="26">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="F4" s="23">
-        <v>43348</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C5" s="26">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
       <c r="E5" s="27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F5" s="23">
-        <v>42927</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="str">
         <f>IF(C6="","",VLOOKUP(C6,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C6" s="26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F6" s="23">
-        <v>42955</v>
+        <v>42921</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C7" s="26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="26">
-        <v>3</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>144</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="F7" s="23">
-        <v>43093</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C8" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="F8" s="23">
-        <v>43238</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="str">
         <f>IF(C9="","",VLOOKUP(C9,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C9" s="26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="F9" s="23">
-        <v>42921</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3183,68 +3175,44 @@
         <v>3</v>
       </c>
       <c r="D10" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="F10" s="23">
-        <v>42936</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C11" s="26">
-        <v>3</v>
-      </c>
-      <c r="D11" s="26">
-        <v>5</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="23">
-        <v>42933</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C12" s="26">
-        <v>3</v>
-      </c>
-      <c r="D12" s="26">
-        <v>5</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="23">
-        <v>42933</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="str">
         <f>IF(C13="","",VLOOKUP(C13,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
-      </c>
-      <c r="C13" s="26">
-        <v>3</v>
-      </c>
-      <c r="D13" s="26">
-        <v>6</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="23">
-        <v>42927</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="str">
@@ -3286,53 +3254,13 @@
       <c r="E17" s="27"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="str">
-        <f>IF(C20="","",VLOOKUP(C20,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="str">
-        <f>IF(C21="","",VLOOKUP(C21,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="23"/>
-    </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{1AE9C585-C8FC-4AEA-B4A0-D7A8652181E9}">
-    <sortState ref="B3:F21">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F17">
       <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F3:F21">
+  <conditionalFormatting sqref="F3:F17">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -3398,7 +3326,7 @@
       </c>
       <c r="E2" s="46"/>
       <c r="G2" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,11 +3779,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState ref="A2:E32">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E32">
       <sortCondition ref="A1:A5"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:C28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D3:D32 E2:E32">
@@ -5362,7 +5290,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G15" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState ref="A2:K7">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
       <sortCondition ref="A1:A5"/>
     </sortState>
   </autoFilter>

--- a/docs/attendance.xlsx
+++ b/docs/attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\attendance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03182E35-5C02-402A-BF01-449392BC49B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6FE20-3795-4313-A216-FBF3F09906F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="6630" windowHeight="7515" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Módulos" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="152">
   <si>
     <t>Seq.</t>
   </si>
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>Tornar dinâmico campos amarelos de resumo de junho de 2017</t>
+  </si>
+  <si>
+    <t>Presença: Botão para lançar presenças em nova data sem ter que voltar para a lista de atividades</t>
+  </si>
+  <si>
+    <t>Presença: Arrumar sequência de botões para não sumir na tela no formato retrato do celular</t>
   </si>
 </sst>
 </file>
@@ -3009,7 +3015,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,49 +3055,49 @@
         <v>3</v>
       </c>
       <c r="D3" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F3" s="23">
-        <v>42955</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="str">
         <f>IF(C4="","",VLOOKUP(C4,Módulos!B:C,2,FALSE))</f>
-        <v>Tableau - Zoho Reports</v>
+        <v>Front - Web</v>
       </c>
       <c r="C4" s="26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>144</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="F4" s="23">
-        <v>43093</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="str">
         <f>IF(C5="","",VLOOKUP(C5,Módulos!B:C,2,FALSE))</f>
-        <v>DB</v>
+        <v>Front - Web</v>
       </c>
       <c r="C5" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="F5" s="23">
-        <v>43238</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3103,49 +3109,49 @@
         <v>9</v>
       </c>
       <c r="D6" s="26">
-        <v>4</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="F6" s="23">
-        <v>42921</v>
+        <v>43093</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="str">
         <f>IF(C7="","",VLOOKUP(C7,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>DB</v>
       </c>
       <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="26">
-        <v>5</v>
-      </c>
       <c r="E7" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7" s="23">
-        <v>42936</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="str">
         <f>IF(C8="","",VLOOKUP(C8,Módulos!B:C,2,FALSE))</f>
-        <v>Front - Web</v>
+        <v>Tableau - Zoho Reports</v>
       </c>
       <c r="C8" s="26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="F8" s="23">
-        <v>42933</v>
+        <v>42921</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="F9" s="23">
-        <v>42933</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,34 +3181,50 @@
         <v>3</v>
       </c>
       <c r="D10" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" s="23">
-        <v>42927</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="str">
         <f>IF(C11="","",VLOOKUP(C11,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="23"/>
+        <v>Front - Web</v>
+      </c>
+      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="23">
+        <v>42933</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Módulos!B:C,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="23"/>
+        <v>Front - Web</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <v>6</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="23">
+        <v>42927</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25" t="str">
